--- a/ExcelCAT/Finanzen 2017.xlsx
+++ b/ExcelCAT/Finanzen 2017.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hollweck\Documents\Programme\Python\Code\Github\FiExcelOrg\ExcelHO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hollweck\Documents\Programme\Python\Code\Github\FiXcelOrg\ExcelCAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1353,31 +1353,6 @@
     <xf numFmtId="168" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1397,11 +1372,7 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1416,6 +1387,35 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -31222,7 +31222,7 @@
       <c r="Z15" s="82"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="100">
+      <c r="A16" s="127">
         <v>42614</v>
       </c>
       <c r="B16" s="83" t="s">
@@ -31265,7 +31265,7 @@
       <c r="Z16" s="55"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="98"/>
+      <c r="A17" s="124"/>
       <c r="B17" s="83" t="s">
         <v>192</v>
       </c>
@@ -31301,7 +31301,7 @@
       <c r="Z17" s="55"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="98"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="54" t="s">
         <v>174</v>
       </c>
@@ -31333,7 +31333,7 @@
       <c r="Z18" s="55"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="98"/>
+      <c r="A19" s="124"/>
       <c r="B19" s="83" t="s">
         <v>192</v>
       </c>
@@ -31369,7 +31369,7 @@
       <c r="Z19" s="55"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="98"/>
+      <c r="A20" s="124"/>
       <c r="B20" s="54" t="s">
         <v>158</v>
       </c>
@@ -31401,7 +31401,7 @@
       <c r="Z20" s="55"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="98"/>
+      <c r="A21" s="124"/>
       <c r="B21" s="41" t="s">
         <v>194</v>
       </c>
@@ -31433,7 +31433,7 @@
       <c r="Z21" s="55"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="98"/>
+      <c r="A22" s="124"/>
       <c r="B22" s="54" t="s">
         <v>195</v>
       </c>
@@ -31465,7 +31465,7 @@
       <c r="Z22" s="55"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="98"/>
+      <c r="A23" s="124"/>
       <c r="B23" s="83" t="s">
         <v>192</v>
       </c>
@@ -31501,7 +31501,7 @@
       <c r="Z23" s="55"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="98"/>
+      <c r="A24" s="124"/>
       <c r="B24" s="54" t="s">
         <v>196</v>
       </c>
@@ -31604,7 +31604,7 @@
       <c r="L27" s="44"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="100">
+      <c r="A28" s="127">
         <v>42618</v>
       </c>
       <c r="B28" s="83" t="s">
@@ -31638,7 +31638,7 @@
       <c r="Z28" s="55"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="98"/>
+      <c r="A29" s="124"/>
       <c r="B29" s="54" t="s">
         <v>158</v>
       </c>
@@ -31670,7 +31670,7 @@
       <c r="Z29" s="55"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="98"/>
+      <c r="A30" s="124"/>
       <c r="B30" s="54" t="s">
         <v>155</v>
       </c>
@@ -31702,7 +31702,7 @@
       <c r="Z30" s="55"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="98"/>
+      <c r="A31" s="124"/>
       <c r="B31" s="41" t="s">
         <v>199</v>
       </c>
@@ -31734,7 +31734,7 @@
       <c r="Z31" s="55"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="97">
+      <c r="A32" s="123">
         <v>42619</v>
       </c>
       <c r="B32" s="54" t="s">
@@ -31754,7 +31754,7 @@
       <c r="L32" s="44"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="98"/>
+      <c r="A33" s="124"/>
       <c r="B33" s="54" t="s">
         <v>200</v>
       </c>
@@ -31802,7 +31802,7 @@
       <c r="Z34" s="55"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="97">
+      <c r="A35" s="123">
         <v>42621</v>
       </c>
       <c r="B35" s="59" t="s">
@@ -31822,7 +31822,7 @@
       <c r="L35" s="44"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="98"/>
+      <c r="A36" s="124"/>
       <c r="B36" s="54" t="s">
         <v>41</v>
       </c>
@@ -31839,7 +31839,7 @@
       <c r="L36" s="44"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="98"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="84" t="s">
         <v>202</v>
       </c>
@@ -31985,7 +31985,7 @@
       <c r="Z42" s="55"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="97">
+      <c r="A43" s="123">
         <v>42627</v>
       </c>
       <c r="B43" s="54" t="s">
@@ -32009,7 +32009,7 @@
       <c r="L43" s="44"/>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="98"/>
+      <c r="A44" s="124"/>
       <c r="B44" s="54" t="s">
         <v>205</v>
       </c>
@@ -32057,7 +32057,7 @@
       <c r="Z45" s="84"/>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="97">
+      <c r="A46" s="123">
         <v>42629</v>
       </c>
       <c r="B46" s="59" t="s">
@@ -32077,7 +32077,7 @@
       <c r="L46" s="44"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="98"/>
+      <c r="A47" s="124"/>
       <c r="B47" s="41" t="s">
         <v>207</v>
       </c>
@@ -32095,7 +32095,7 @@
       <c r="L47" s="44"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="A48" s="104">
+      <c r="A48" s="132">
         <v>42630</v>
       </c>
       <c r="B48" s="54" t="s">
@@ -32129,7 +32129,7 @@
       <c r="Z48" s="84"/>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="98"/>
+      <c r="A49" s="124"/>
       <c r="B49" s="54" t="s">
         <v>195</v>
       </c>
@@ -32257,7 +32257,7 @@
       <c r="Z53" s="55"/>
     </row>
     <row r="54" spans="1:26">
-      <c r="A54" s="101">
+      <c r="A54" s="130">
         <v>42635</v>
       </c>
       <c r="B54" s="41"/>
@@ -32273,7 +32273,7 @@
       <c r="L54" s="44"/>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="98"/>
+      <c r="A55" s="124"/>
       <c r="B55" s="41"/>
       <c r="C55" s="44"/>
       <c r="D55" s="44"/>
@@ -32381,7 +32381,7 @@
       <c r="L59" s="44"/>
     </row>
     <row r="60" spans="1:26">
-      <c r="A60" s="100">
+      <c r="A60" s="127">
         <v>42640</v>
       </c>
       <c r="B60" t="s">
@@ -32420,7 +32420,7 @@
       <c r="Z60" s="55"/>
     </row>
     <row r="61" spans="1:26">
-      <c r="A61" s="98"/>
+      <c r="A61" s="124"/>
       <c r="B61" s="85" t="s">
         <v>210</v>
       </c>
@@ -32452,7 +32452,7 @@
       <c r="Z61" s="55"/>
     </row>
     <row r="62" spans="1:26">
-      <c r="A62" s="98"/>
+      <c r="A62" s="124"/>
       <c r="B62" s="85" t="s">
         <v>211</v>
       </c>
@@ -32498,7 +32498,7 @@
       <c r="L63" s="44"/>
     </row>
     <row r="64" spans="1:26">
-      <c r="A64" s="100">
+      <c r="A64" s="127">
         <v>42642</v>
       </c>
       <c r="C64" s="52"/>
@@ -32531,7 +32531,7 @@
       <c r="Z64" s="55"/>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="98"/>
+      <c r="A65" s="124"/>
       <c r="C65" s="52"/>
       <c r="D65" s="52"/>
       <c r="E65" s="52"/>
@@ -32558,7 +32558,7 @@
       <c r="Z65" s="55"/>
     </row>
     <row r="66" spans="1:26">
-      <c r="A66" s="97">
+      <c r="A66" s="123">
         <v>42643</v>
       </c>
       <c r="C66" s="43"/>
@@ -32572,22 +32572,22 @@
       <c r="L66" s="44"/>
     </row>
     <row r="67" spans="1:26">
-      <c r="A67" s="98"/>
+      <c r="A67" s="124"/>
       <c r="C67" s="43"/>
       <c r="H67" s="43"/>
     </row>
     <row r="68" spans="1:26">
-      <c r="A68" s="98"/>
+      <c r="A68" s="124"/>
       <c r="C68" s="43"/>
       <c r="H68" s="43"/>
     </row>
     <row r="69" spans="1:26">
-      <c r="A69" s="98"/>
+      <c r="A69" s="124"/>
       <c r="C69" s="43"/>
       <c r="H69" s="43"/>
     </row>
     <row r="70" spans="1:26">
-      <c r="A70" s="105" t="s">
+      <c r="A70" s="133" t="s">
         <v>213</v>
       </c>
       <c r="B70" s="41"/>
@@ -32617,7 +32617,7 @@
       <c r="Z70" s="55"/>
     </row>
     <row r="71" spans="1:26">
-      <c r="A71" s="98"/>
+      <c r="A71" s="124"/>
       <c r="B71" s="41"/>
       <c r="C71" s="71"/>
       <c r="D71" s="88"/>
@@ -32933,7 +32933,7 @@
       <c r="Z15" s="82"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="100">
+      <c r="A16" s="127">
         <v>42644</v>
       </c>
       <c r="B16" s="41" t="s">
@@ -32971,7 +32971,7 @@
       <c r="Z16" s="55"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="98"/>
+      <c r="A17" s="124"/>
       <c r="B17" s="72" t="s">
         <v>217</v>
       </c>
@@ -33003,7 +33003,7 @@
       <c r="Z17" s="55"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="98"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="59" t="s">
         <v>218</v>
       </c>
@@ -33035,7 +33035,7 @@
       <c r="Z18" s="55"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="98"/>
+      <c r="A19" s="124"/>
       <c r="B19" s="72" t="s">
         <v>219</v>
       </c>
@@ -33130,7 +33130,7 @@
       <c r="L22" s="44"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="100">
+      <c r="A23" s="127">
         <v>42618</v>
       </c>
       <c r="B23" s="54" t="s">
@@ -33164,7 +33164,7 @@
       <c r="Z23" s="55"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="98"/>
+      <c r="A24" s="124"/>
       <c r="B24" s="54" t="s">
         <v>159</v>
       </c>
@@ -33196,7 +33196,7 @@
       <c r="Z24" s="55"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="98"/>
+      <c r="A25" s="124"/>
       <c r="B25" s="59" t="s">
         <v>116</v>
       </c>
@@ -33228,7 +33228,7 @@
       <c r="Z25" s="55"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="97">
+      <c r="A26" s="123">
         <v>42619</v>
       </c>
       <c r="B26" s="54" t="s">
@@ -33248,7 +33248,7 @@
       <c r="L26" s="44"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="98"/>
+      <c r="A27" s="124"/>
       <c r="B27" s="41"/>
       <c r="C27" s="44">
         <v>-18.07</v>
@@ -33264,7 +33264,7 @@
       <c r="L27" s="44"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="98"/>
+      <c r="A28" s="124"/>
       <c r="B28" s="56" t="s">
         <v>63</v>
       </c>
@@ -33282,7 +33282,7 @@
       <c r="L28" s="44"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="102">
+      <c r="A29" s="131">
         <v>42620</v>
       </c>
       <c r="B29" s="54" t="s">
@@ -33316,7 +33316,7 @@
       <c r="Z29" s="55"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="98"/>
+      <c r="A30" s="124"/>
       <c r="B30" s="54" t="s">
         <v>164</v>
       </c>
@@ -33348,7 +33348,7 @@
       <c r="Z30" s="55"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="98"/>
+      <c r="A31" s="124"/>
       <c r="B31" s="56" t="s">
         <v>63</v>
       </c>
@@ -33434,7 +33434,7 @@
       <c r="Z33" s="55"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="97">
+      <c r="A34" s="123">
         <v>42623</v>
       </c>
       <c r="B34" s="54" t="s">
@@ -33454,7 +33454,7 @@
       <c r="L34" s="44"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="98"/>
+      <c r="A35" s="124"/>
       <c r="B35" s="56" t="s">
         <v>220</v>
       </c>
@@ -33472,7 +33472,7 @@
       <c r="L35" s="44"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="102">
+      <c r="A36" s="131">
         <v>42624</v>
       </c>
       <c r="B36" s="54" t="s">
@@ -33506,7 +33506,7 @@
       <c r="Z36" s="55"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="98"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="41" t="s">
         <v>221</v>
       </c>
@@ -33558,7 +33558,7 @@
       <c r="L38" s="44"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="100">
+      <c r="A39" s="127">
         <v>42626</v>
       </c>
       <c r="B39" s="54" t="s">
@@ -33592,7 +33592,7 @@
       <c r="Z39" s="55"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="98"/>
+      <c r="A40" s="124"/>
       <c r="B40" s="56" t="s">
         <v>220</v>
       </c>
@@ -33624,7 +33624,7 @@
       <c r="Z40" s="55"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="97">
+      <c r="A41" s="123">
         <v>42627</v>
       </c>
       <c r="B41" s="54" t="s">
@@ -33644,7 +33644,7 @@
       <c r="L41" s="44"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="98"/>
+      <c r="A42" s="124"/>
       <c r="B42" s="54" t="s">
         <v>222</v>
       </c>
@@ -33662,7 +33662,7 @@
       <c r="L42" s="44"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="104">
+      <c r="A43" s="132">
         <v>42628</v>
       </c>
       <c r="B43" s="41" t="s">
@@ -33696,7 +33696,7 @@
       <c r="Z43" s="84"/>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="98"/>
+      <c r="A44" s="124"/>
       <c r="B44" s="41" t="s">
         <v>224</v>
       </c>
@@ -33728,7 +33728,7 @@
       <c r="Z44" s="84"/>
     </row>
     <row r="45" spans="1:26">
-      <c r="A45" s="98"/>
+      <c r="A45" s="124"/>
       <c r="B45" s="56" t="s">
         <v>92</v>
       </c>
@@ -33776,7 +33776,7 @@
       <c r="L46" s="44"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="104">
+      <c r="A47" s="132">
         <v>42630</v>
       </c>
       <c r="B47" s="54" t="s">
@@ -33810,7 +33810,7 @@
       <c r="Z47" s="84"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="A48" s="98"/>
+      <c r="A48" s="124"/>
       <c r="B48" s="41" t="s">
         <v>225</v>
       </c>
@@ -33842,7 +33842,7 @@
       <c r="Z48" s="84"/>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="98"/>
+      <c r="A49" s="124"/>
       <c r="B49" s="56" t="s">
         <v>92</v>
       </c>
@@ -33874,7 +33874,7 @@
       <c r="Z49" s="84"/>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="98"/>
+      <c r="A50" s="124"/>
       <c r="B50" s="56" t="s">
         <v>92</v>
       </c>
@@ -33906,7 +33906,7 @@
       <c r="Z50" s="84"/>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="97">
+      <c r="A51" s="123">
         <v>42631</v>
       </c>
       <c r="B51" s="41" t="s">
@@ -33930,7 +33930,7 @@
       <c r="L51" s="44"/>
     </row>
     <row r="52" spans="1:26">
-      <c r="A52" s="98"/>
+      <c r="A52" s="124"/>
       <c r="B52" s="54" t="s">
         <v>149</v>
       </c>
@@ -33948,7 +33948,7 @@
       <c r="L52" s="44"/>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="98"/>
+      <c r="A53" s="124"/>
       <c r="B53" s="56" t="s">
         <v>92</v>
       </c>
@@ -33966,7 +33966,7 @@
       <c r="L53" s="44"/>
     </row>
     <row r="54" spans="1:26">
-      <c r="A54" s="100">
+      <c r="A54" s="127">
         <v>42632</v>
       </c>
       <c r="B54" s="54" t="s">
@@ -34000,7 +34000,7 @@
       <c r="Z54" s="55"/>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="98"/>
+      <c r="A55" s="124"/>
       <c r="B55" s="87" t="s">
         <v>227</v>
       </c>
@@ -34032,7 +34032,7 @@
       <c r="Z55" s="55"/>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="101">
+      <c r="A56" s="130">
         <v>42633</v>
       </c>
       <c r="B56" s="54" t="s">
@@ -34052,7 +34052,7 @@
       <c r="L56" s="44"/>
     </row>
     <row r="57" spans="1:26">
-      <c r="A57" s="98"/>
+      <c r="A57" s="124"/>
       <c r="B57" s="41" t="s">
         <v>74</v>
       </c>
@@ -34070,7 +34070,7 @@
       <c r="L57" s="44"/>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="98"/>
+      <c r="A58" s="124"/>
       <c r="B58" s="56" t="s">
         <v>93</v>
       </c>
@@ -34088,7 +34088,7 @@
       <c r="L58" s="44"/>
     </row>
     <row r="59" spans="1:26">
-      <c r="A59" s="102">
+      <c r="A59" s="131">
         <v>42634</v>
       </c>
       <c r="B59" s="41" t="s">
@@ -34122,7 +34122,7 @@
       <c r="Z59" s="55"/>
     </row>
     <row r="60" spans="1:26">
-      <c r="A60" s="98"/>
+      <c r="A60" s="124"/>
       <c r="B60" s="56" t="s">
         <v>92</v>
       </c>
@@ -34198,7 +34198,7 @@
       <c r="Z62" s="55"/>
     </row>
     <row r="63" spans="1:26">
-      <c r="A63" s="97">
+      <c r="A63" s="123">
         <v>42637</v>
       </c>
       <c r="B63" s="41" t="s">
@@ -34218,7 +34218,7 @@
       <c r="L63" s="44"/>
     </row>
     <row r="64" spans="1:26">
-      <c r="A64" s="98"/>
+      <c r="A64" s="124"/>
       <c r="B64" s="56" t="s">
         <v>92</v>
       </c>
@@ -34236,7 +34236,7 @@
       <c r="L64" s="44"/>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="98"/>
+      <c r="A65" s="124"/>
       <c r="B65" s="59" t="s">
         <v>230</v>
       </c>
@@ -34340,7 +34340,7 @@
       <c r="L68" s="44"/>
     </row>
     <row r="69" spans="1:26">
-      <c r="A69" s="100">
+      <c r="A69" s="127">
         <v>42640</v>
       </c>
       <c r="B69" s="70" t="s">
@@ -34374,7 +34374,7 @@
       <c r="Z69" s="55"/>
     </row>
     <row r="70" spans="1:26">
-      <c r="A70" s="98"/>
+      <c r="A70" s="124"/>
       <c r="B70" s="70" t="s">
         <v>164</v>
       </c>
@@ -34406,7 +34406,7 @@
       <c r="Z70" s="55"/>
     </row>
     <row r="71" spans="1:26">
-      <c r="A71" s="98"/>
+      <c r="A71" s="124"/>
       <c r="B71" s="66" t="s">
         <v>92</v>
       </c>
@@ -34438,7 +34438,7 @@
       <c r="Z71" s="55"/>
     </row>
     <row r="72" spans="1:26">
-      <c r="A72" s="98"/>
+      <c r="A72" s="124"/>
       <c r="B72" t="s">
         <v>231</v>
       </c>
@@ -34523,7 +34523,7 @@
       <c r="L75" s="44"/>
     </row>
     <row r="76" spans="1:26">
-      <c r="A76" s="100">
+      <c r="A76" s="127">
         <v>42642</v>
       </c>
       <c r="B76" s="70" t="s">
@@ -34557,7 +34557,7 @@
       <c r="Z76" s="55"/>
     </row>
     <row r="77" spans="1:26">
-      <c r="A77" s="98"/>
+      <c r="A77" s="124"/>
       <c r="C77" s="52"/>
       <c r="D77" s="52"/>
       <c r="E77" s="52"/>
@@ -34584,7 +34584,7 @@
       <c r="Z77" s="55"/>
     </row>
     <row r="78" spans="1:26">
-      <c r="A78" s="97">
+      <c r="A78" s="123">
         <v>42643</v>
       </c>
       <c r="C78" s="43"/>
@@ -34598,22 +34598,22 @@
       <c r="L78" s="44"/>
     </row>
     <row r="79" spans="1:26">
-      <c r="A79" s="98"/>
+      <c r="A79" s="124"/>
       <c r="C79" s="43"/>
       <c r="H79" s="43"/>
     </row>
     <row r="80" spans="1:26">
-      <c r="A80" s="98"/>
+      <c r="A80" s="124"/>
       <c r="C80" s="43"/>
       <c r="H80" s="43"/>
     </row>
     <row r="81" spans="1:26">
-      <c r="A81" s="98"/>
+      <c r="A81" s="124"/>
       <c r="C81" s="43"/>
       <c r="H81" s="43"/>
     </row>
     <row r="82" spans="1:26">
-      <c r="A82" s="105" t="s">
+      <c r="A82" s="133" t="s">
         <v>213</v>
       </c>
       <c r="B82" s="41"/>
@@ -34643,7 +34643,7 @@
       <c r="Z82" s="55"/>
     </row>
     <row r="83" spans="1:26">
-      <c r="A83" s="98"/>
+      <c r="A83" s="124"/>
       <c r="B83" s="41"/>
       <c r="C83" s="71"/>
       <c r="D83" s="88"/>
@@ -34716,6 +34716,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A43:A45"/>
     <mergeCell ref="A56:A58"/>
     <mergeCell ref="A78:A81"/>
     <mergeCell ref="A82:A83"/>
@@ -34723,18 +34735,6 @@
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="A76:A77"/>
     <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A34:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34981,7 +34981,7 @@
       <c r="Z15" s="82"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="100">
+      <c r="A16" s="127">
         <v>42675</v>
       </c>
       <c r="B16" s="41" t="s">
@@ -35015,7 +35015,7 @@
       <c r="Z16" s="55"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="98"/>
+      <c r="A17" s="124"/>
       <c r="B17" s="41" t="s">
         <v>74</v>
       </c>
@@ -35047,7 +35047,7 @@
       <c r="Z17" s="55"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="98"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="41" t="s">
         <v>92</v>
       </c>
@@ -35079,7 +35079,7 @@
       <c r="Z18" s="55"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="98"/>
+      <c r="A19" s="124"/>
       <c r="B19" s="41" t="s">
         <v>238</v>
       </c>
@@ -35111,7 +35111,7 @@
       <c r="Z19" s="55"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="97">
+      <c r="A20" s="123">
         <v>42676</v>
       </c>
       <c r="B20" s="41" t="s">
@@ -35134,7 +35134,7 @@
       <c r="L20" s="44"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="98"/>
+      <c r="A21" s="124"/>
       <c r="B21" s="41" t="s">
         <v>92</v>
       </c>
@@ -35151,7 +35151,7 @@
       <c r="L21" s="44"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="98"/>
+      <c r="A22" s="124"/>
       <c r="B22" s="41" t="s">
         <v>74</v>
       </c>
@@ -35168,7 +35168,7 @@
       <c r="L22" s="44"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="100">
+      <c r="A23" s="127">
         <v>42677</v>
       </c>
       <c r="B23" s="41" t="s">
@@ -35202,7 +35202,7 @@
       <c r="Z23" s="55"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="98"/>
+      <c r="A24" s="124"/>
       <c r="B24" s="41" t="s">
         <v>240</v>
       </c>
@@ -35236,7 +35236,7 @@
       <c r="Z24" s="55"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="98"/>
+      <c r="A25" s="124"/>
       <c r="B25" s="41" t="s">
         <v>92</v>
       </c>
@@ -35272,7 +35272,7 @@
       <c r="Z25" s="55"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="98"/>
+      <c r="A26" s="124"/>
       <c r="B26" s="41" t="s">
         <v>162</v>
       </c>
@@ -35304,7 +35304,7 @@
       <c r="Z26" s="55"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="97">
+      <c r="A27" s="123">
         <v>42678</v>
       </c>
       <c r="B27" s="41" t="s">
@@ -35326,7 +35326,7 @@
       <c r="L27" s="44"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="98"/>
+      <c r="A28" s="124"/>
       <c r="B28" s="41" t="s">
         <v>92</v>
       </c>
@@ -35392,7 +35392,7 @@
       <c r="L30" s="44"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="102">
+      <c r="A31" s="131">
         <v>42681</v>
       </c>
       <c r="B31" s="41" t="s">
@@ -35426,7 +35426,7 @@
       <c r="Z31" s="55"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="98"/>
+      <c r="A32" s="124"/>
       <c r="B32" s="41" t="s">
         <v>92</v>
       </c>
@@ -35458,7 +35458,7 @@
       <c r="Z32" s="55"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="97">
+      <c r="A33" s="123">
         <v>42621</v>
       </c>
       <c r="B33" s="41" t="s">
@@ -35478,7 +35478,7 @@
       <c r="L33" s="44"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="98"/>
+      <c r="A34" s="124"/>
       <c r="B34" s="41" t="s">
         <v>241</v>
       </c>
@@ -35496,7 +35496,7 @@
       <c r="L34" s="44"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="102">
+      <c r="A35" s="131">
         <v>42683</v>
       </c>
       <c r="B35" s="41" t="s">
@@ -35534,7 +35534,7 @@
       <c r="Z35" s="55"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="98"/>
+      <c r="A36" s="124"/>
       <c r="B36" s="41" t="s">
         <v>242</v>
       </c>
@@ -35566,7 +35566,7 @@
       <c r="Z36" s="55"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="98"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="41" t="s">
         <v>243</v>
       </c>
@@ -35598,7 +35598,7 @@
       <c r="Z37" s="55"/>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="98"/>
+      <c r="A38" s="124"/>
       <c r="B38" s="41" t="s">
         <v>241</v>
       </c>
@@ -35630,7 +35630,7 @@
       <c r="Z38" s="55"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="97">
+      <c r="A39" s="123">
         <v>42684</v>
       </c>
       <c r="B39" s="41" t="s">
@@ -35650,7 +35650,7 @@
       <c r="L39" s="44"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="98"/>
+      <c r="A40" s="124"/>
       <c r="B40" s="41" t="s">
         <v>74</v>
       </c>
@@ -35668,7 +35668,7 @@
       <c r="L40" s="44"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="102">
+      <c r="A41" s="131">
         <v>42685</v>
       </c>
       <c r="B41" s="41" t="s">
@@ -35702,7 +35702,7 @@
       <c r="Z41" s="55"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="98"/>
+      <c r="A42" s="124"/>
       <c r="B42" s="41" t="s">
         <v>92</v>
       </c>
@@ -35734,7 +35734,7 @@
       <c r="Z42" s="55"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="98"/>
+      <c r="A43" s="124"/>
       <c r="B43" s="41" t="s">
         <v>244</v>
       </c>
@@ -35816,7 +35816,7 @@
       <c r="Z45" s="55"/>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="97">
+      <c r="A46" s="123">
         <v>42688</v>
       </c>
       <c r="B46" s="41" t="s">
@@ -35836,7 +35836,7 @@
       <c r="L46" s="44"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="98"/>
+      <c r="A47" s="124"/>
       <c r="B47" s="41" t="s">
         <v>245</v>
       </c>
@@ -35854,7 +35854,7 @@
       <c r="L47" s="44"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="A48" s="98"/>
+      <c r="A48" s="124"/>
       <c r="B48" s="41" t="s">
         <v>92</v>
       </c>
@@ -35874,7 +35874,7 @@
       <c r="L48" s="44"/>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="104">
+      <c r="A49" s="132">
         <v>42689</v>
       </c>
       <c r="B49" s="41" t="s">
@@ -35908,7 +35908,7 @@
       <c r="Z49" s="84"/>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="98"/>
+      <c r="A50" s="124"/>
       <c r="B50" s="41" t="s">
         <v>246</v>
       </c>
@@ -35940,7 +35940,7 @@
       <c r="Z50" s="84"/>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="98"/>
+      <c r="A51" s="124"/>
       <c r="B51" s="41" t="s">
         <v>92</v>
       </c>
@@ -35972,7 +35972,7 @@
       <c r="Z51" s="84"/>
     </row>
     <row r="52" spans="1:26">
-      <c r="A52" s="97">
+      <c r="A52" s="123">
         <v>42690</v>
       </c>
       <c r="B52" s="41" t="s">
@@ -35992,7 +35992,7 @@
       <c r="L52" s="44"/>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="98"/>
+      <c r="A53" s="124"/>
       <c r="B53" s="41" t="s">
         <v>92</v>
       </c>
@@ -36010,7 +36010,7 @@
       <c r="L53" s="44"/>
     </row>
     <row r="54" spans="1:26">
-      <c r="A54" s="98"/>
+      <c r="A54" s="124"/>
       <c r="B54" s="41" t="s">
         <v>74</v>
       </c>
@@ -36028,7 +36028,7 @@
       <c r="L54" s="44"/>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="104">
+      <c r="A55" s="132">
         <v>42691</v>
       </c>
       <c r="B55" s="41" t="s">
@@ -36062,7 +36062,7 @@
       <c r="Z55" s="84"/>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="98"/>
+      <c r="A56" s="124"/>
       <c r="B56" s="41" t="s">
         <v>40</v>
       </c>
@@ -36094,7 +36094,7 @@
       <c r="Z56" s="84"/>
     </row>
     <row r="57" spans="1:26">
-      <c r="A57" s="98"/>
+      <c r="A57" s="124"/>
       <c r="D57" s="62"/>
       <c r="E57" s="62"/>
       <c r="F57" s="62"/>
@@ -36124,7 +36124,7 @@
       <c r="Z57" s="84"/>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="98"/>
+      <c r="A58" s="124"/>
       <c r="B58" s="41" t="s">
         <v>162</v>
       </c>
@@ -36154,7 +36154,7 @@
       <c r="Z58" s="84"/>
     </row>
     <row r="59" spans="1:26">
-      <c r="A59" s="97">
+      <c r="A59" s="123">
         <v>42692</v>
       </c>
       <c r="B59" s="41" t="s">
@@ -36174,7 +36174,7 @@
       <c r="L59" s="44"/>
     </row>
     <row r="60" spans="1:26">
-      <c r="A60" s="98"/>
+      <c r="A60" s="124"/>
       <c r="B60" s="41" t="s">
         <v>74</v>
       </c>
@@ -36192,7 +36192,7 @@
       <c r="L60" s="44"/>
     </row>
     <row r="61" spans="1:26">
-      <c r="A61" s="98"/>
+      <c r="A61" s="124"/>
       <c r="B61" s="41" t="s">
         <v>40</v>
       </c>
@@ -36210,7 +36210,7 @@
       <c r="L61" s="44"/>
     </row>
     <row r="62" spans="1:26">
-      <c r="A62" s="98"/>
+      <c r="A62" s="124"/>
       <c r="B62" s="41" t="s">
         <v>92</v>
       </c>
@@ -36282,7 +36282,7 @@
       <c r="L64" s="44"/>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="102">
+      <c r="A65" s="131">
         <v>42695</v>
       </c>
       <c r="B65" s="41" t="s">
@@ -36316,7 +36316,7 @@
       <c r="Z65" s="55"/>
     </row>
     <row r="66" spans="1:26">
-      <c r="A66" s="98"/>
+      <c r="A66" s="124"/>
       <c r="B66" s="41" t="s">
         <v>92</v>
       </c>
@@ -36348,7 +36348,7 @@
       <c r="Z66" s="55"/>
     </row>
     <row r="67" spans="1:26">
-      <c r="A67" s="98"/>
+      <c r="A67" s="124"/>
       <c r="B67" s="41" t="s">
         <v>248</v>
       </c>
@@ -36380,7 +36380,7 @@
       <c r="Z67" s="55"/>
     </row>
     <row r="68" spans="1:26">
-      <c r="A68" s="101">
+      <c r="A68" s="130">
         <v>42696</v>
       </c>
       <c r="B68" s="41" t="s">
@@ -36400,7 +36400,7 @@
       <c r="L68" s="44"/>
     </row>
     <row r="69" spans="1:26">
-      <c r="A69" s="98"/>
+      <c r="A69" s="124"/>
       <c r="B69" s="41" t="s">
         <v>40</v>
       </c>
@@ -36418,7 +36418,7 @@
       <c r="L69" s="44"/>
     </row>
     <row r="70" spans="1:26">
-      <c r="A70" s="98"/>
+      <c r="A70" s="124"/>
       <c r="B70" s="41" t="s">
         <v>74</v>
       </c>
@@ -36436,7 +36436,7 @@
       <c r="L70" s="44"/>
     </row>
     <row r="71" spans="1:26">
-      <c r="A71" s="98"/>
+      <c r="A71" s="124"/>
       <c r="B71" s="41" t="s">
         <v>84</v>
       </c>
@@ -36454,7 +36454,7 @@
       <c r="L71" s="44"/>
     </row>
     <row r="72" spans="1:26">
-      <c r="A72" s="98"/>
+      <c r="A72" s="124"/>
       <c r="B72" s="41" t="s">
         <v>241</v>
       </c>
@@ -36472,7 +36472,7 @@
       <c r="L72" s="44"/>
     </row>
     <row r="73" spans="1:26">
-      <c r="A73" s="100">
+      <c r="A73" s="127">
         <v>42697</v>
       </c>
       <c r="B73" s="41" t="s">
@@ -36504,7 +36504,7 @@
       <c r="Z73" s="55"/>
     </row>
     <row r="74" spans="1:26">
-      <c r="A74" s="98"/>
+      <c r="A74" s="124"/>
       <c r="B74" s="41" t="s">
         <v>74</v>
       </c>
@@ -36534,7 +36534,7 @@
       <c r="Z74" s="55"/>
     </row>
     <row r="75" spans="1:26">
-      <c r="A75" s="98"/>
+      <c r="A75" s="124"/>
       <c r="B75" s="41" t="s">
         <v>92</v>
       </c>
@@ -36564,7 +36564,7 @@
       <c r="Z75" s="55"/>
     </row>
     <row r="76" spans="1:26">
-      <c r="A76" s="98"/>
+      <c r="A76" s="124"/>
       <c r="B76" s="41" t="s">
         <v>249</v>
       </c>
@@ -36594,7 +36594,7 @@
       <c r="Z76" s="55"/>
     </row>
     <row r="77" spans="1:26">
-      <c r="A77" s="97">
+      <c r="A77" s="123">
         <v>42698</v>
       </c>
       <c r="B77" s="41" t="s">
@@ -36614,7 +36614,7 @@
       <c r="L77" s="44"/>
     </row>
     <row r="78" spans="1:26">
-      <c r="A78" s="98"/>
+      <c r="A78" s="124"/>
       <c r="B78" s="41" t="s">
         <v>92</v>
       </c>
@@ -36632,7 +36632,7 @@
       <c r="L78" s="44"/>
     </row>
     <row r="79" spans="1:26">
-      <c r="A79" s="100">
+      <c r="A79" s="127">
         <v>42699</v>
       </c>
       <c r="B79" s="41" t="s">
@@ -36666,7 +36666,7 @@
       <c r="Z79" s="55"/>
     </row>
     <row r="80" spans="1:26">
-      <c r="A80" s="98"/>
+      <c r="A80" s="124"/>
       <c r="B80" s="41" t="s">
         <v>40</v>
       </c>
@@ -36749,7 +36749,7 @@
       <c r="Z82" s="55"/>
     </row>
     <row r="83" spans="1:26">
-      <c r="A83" s="97">
+      <c r="A83" s="123">
         <v>42702</v>
       </c>
       <c r="B83" t="s">
@@ -36768,7 +36768,7 @@
       <c r="L83" s="44"/>
     </row>
     <row r="84" spans="1:26">
-      <c r="A84" s="98"/>
+      <c r="A84" s="124"/>
       <c r="B84" t="s">
         <v>92</v>
       </c>
@@ -36819,7 +36819,7 @@
       <c r="Z85" s="55"/>
     </row>
     <row r="86" spans="1:26">
-      <c r="A86" s="97">
+      <c r="A86" s="123">
         <v>42704</v>
       </c>
       <c r="B86" t="s">
@@ -36838,7 +36838,7 @@
       <c r="L86" s="44"/>
     </row>
     <row r="87" spans="1:26">
-      <c r="A87" s="98"/>
+      <c r="A87" s="124"/>
       <c r="B87" t="s">
         <v>92</v>
       </c>
@@ -36850,7 +36850,7 @@
       </c>
     </row>
     <row r="88" spans="1:26">
-      <c r="A88" s="105" t="s">
+      <c r="A88" s="133" t="s">
         <v>250</v>
       </c>
       <c r="B88" s="41"/>
@@ -36880,7 +36880,7 @@
       <c r="Z88" s="55"/>
     </row>
     <row r="89" spans="1:26">
-      <c r="A89" s="98"/>
+      <c r="A89" s="124"/>
       <c r="B89" s="41"/>
       <c r="C89" s="71"/>
       <c r="D89" s="88"/>
@@ -36953,13 +36953,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A68:A72"/>
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="A65:A67"/>
     <mergeCell ref="A39:A40"/>
@@ -36970,11 +36968,13 @@
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37220,7 +37220,7 @@
       <c r="Z15" s="82"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="100">
+      <c r="A16" s="127">
         <v>42644</v>
       </c>
       <c r="B16" s="41" t="s">
@@ -37258,7 +37258,7 @@
       <c r="Z16" s="55"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="98"/>
+      <c r="A17" s="124"/>
       <c r="B17" s="41" t="s">
         <v>84</v>
       </c>
@@ -37289,7 +37289,7 @@
       <c r="Z17" s="55"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="98"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="41" t="s">
         <v>71</v>
       </c>
@@ -37320,7 +37320,7 @@
       <c r="Z18" s="55"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="98"/>
+      <c r="A19" s="124"/>
       <c r="B19" s="41"/>
       <c r="C19" s="67"/>
       <c r="E19" s="51"/>
@@ -37500,7 +37500,7 @@
       <c r="L26" s="44"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="100">
+      <c r="A27" s="127">
         <v>42618</v>
       </c>
       <c r="B27" s="41" t="s">
@@ -37534,7 +37534,7 @@
       <c r="Z27" s="55"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="98"/>
+      <c r="A28" s="124"/>
       <c r="B28" s="41"/>
       <c r="C28" s="52"/>
       <c r="D28" s="52"/>
@@ -37562,7 +37562,7 @@
       <c r="Z28" s="55"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="98"/>
+      <c r="A29" s="124"/>
       <c r="B29" s="41"/>
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
@@ -37590,7 +37590,7 @@
       <c r="Z29" s="55"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="97">
+      <c r="A30" s="123">
         <v>42619</v>
       </c>
       <c r="B30" s="41" t="s">
@@ -37610,7 +37610,7 @@
       <c r="L30" s="44"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="98"/>
+      <c r="A31" s="124"/>
       <c r="B31" s="41" t="s">
         <v>40</v>
       </c>
@@ -37628,7 +37628,7 @@
       <c r="L31" s="44"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="98"/>
+      <c r="A32" s="124"/>
       <c r="B32" s="41"/>
       <c r="C32" s="44"/>
       <c r="D32" s="44"/>
@@ -37642,7 +37642,7 @@
       <c r="L32" s="44"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="102">
+      <c r="A33" s="131">
         <v>42620</v>
       </c>
       <c r="B33" s="41" t="s">
@@ -37676,7 +37676,7 @@
       <c r="Z33" s="55"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="98"/>
+      <c r="A34" s="124"/>
       <c r="B34" s="41" t="s">
         <v>92</v>
       </c>
@@ -37708,7 +37708,7 @@
       <c r="Z34" s="55"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="98"/>
+      <c r="A35" s="124"/>
       <c r="B35" s="41"/>
       <c r="C35" s="52"/>
       <c r="D35" s="52"/>
@@ -37840,7 +37840,7 @@
       <c r="Z39" s="55"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="97">
+      <c r="A40" s="123">
         <v>42623</v>
       </c>
       <c r="B40" s="41" t="s">
@@ -37860,7 +37860,7 @@
       <c r="L40" s="44"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="98"/>
+      <c r="A41" s="124"/>
       <c r="B41" s="41"/>
       <c r="C41" s="44"/>
       <c r="D41" s="44"/>
@@ -37874,7 +37874,7 @@
       <c r="L41" s="44"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="102">
+      <c r="A42" s="131">
         <v>42624</v>
       </c>
       <c r="B42" s="41" t="s">
@@ -37908,7 +37908,7 @@
       <c r="Z42" s="55"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="98"/>
+      <c r="A43" s="124"/>
       <c r="B43" s="41"/>
       <c r="C43" s="52"/>
       <c r="D43" s="52"/>
@@ -38010,7 +38010,7 @@
       <c r="L47" s="44"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="A48" s="100">
+      <c r="A48" s="127">
         <v>42626</v>
       </c>
       <c r="B48" s="41" t="s">
@@ -38044,7 +38044,7 @@
       <c r="Z48" s="55"/>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="98"/>
+      <c r="A49" s="124"/>
       <c r="B49" s="41" t="s">
         <v>92</v>
       </c>
@@ -38108,7 +38108,7 @@
       <c r="Z50" s="55"/>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="97">
+      <c r="A51" s="123">
         <v>42627</v>
       </c>
       <c r="B51" s="41" t="s">
@@ -38128,7 +38128,7 @@
       <c r="L51" s="44"/>
     </row>
     <row r="52" spans="1:26">
-      <c r="A52" s="98"/>
+      <c r="A52" s="124"/>
       <c r="B52" s="41" t="s">
         <v>92</v>
       </c>
@@ -38146,7 +38146,7 @@
       <c r="L52" s="44"/>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="104">
+      <c r="A53" s="132">
         <v>42628</v>
       </c>
       <c r="B53" s="41" t="s">
@@ -38180,7 +38180,7 @@
       <c r="Z53" s="84"/>
     </row>
     <row r="54" spans="1:26">
-      <c r="A54" s="98"/>
+      <c r="A54" s="124"/>
       <c r="B54" s="41"/>
       <c r="C54" s="62"/>
       <c r="D54" s="62"/>
@@ -38208,7 +38208,7 @@
       <c r="Z54" s="84"/>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="98"/>
+      <c r="A55" s="124"/>
       <c r="B55" s="41"/>
       <c r="C55" s="62"/>
       <c r="D55" s="62"/>
@@ -38310,7 +38310,7 @@
       <c r="L59" s="44"/>
     </row>
     <row r="60" spans="1:26">
-      <c r="A60" s="104">
+      <c r="A60" s="132">
         <v>42630</v>
       </c>
       <c r="B60" s="41" t="s">
@@ -38344,7 +38344,7 @@
       <c r="Z60" s="84"/>
     </row>
     <row r="61" spans="1:26">
-      <c r="A61" s="98"/>
+      <c r="A61" s="124"/>
       <c r="B61" s="41" t="s">
         <v>258</v>
       </c>
@@ -38376,7 +38376,7 @@
       <c r="Z61" s="84"/>
     </row>
     <row r="62" spans="1:26">
-      <c r="A62" s="98"/>
+      <c r="A62" s="124"/>
       <c r="B62" s="41" t="s">
         <v>259</v>
       </c>
@@ -38408,7 +38408,7 @@
       <c r="Z62" s="84"/>
     </row>
     <row r="63" spans="1:26">
-      <c r="A63" s="98"/>
+      <c r="A63" s="124"/>
       <c r="B63" s="41"/>
       <c r="C63" s="62"/>
       <c r="D63" s="62"/>
@@ -38436,7 +38436,7 @@
       <c r="Z63" s="84"/>
     </row>
     <row r="64" spans="1:26">
-      <c r="A64" s="97">
+      <c r="A64" s="123">
         <v>42631</v>
       </c>
       <c r="B64" s="41" t="s">
@@ -38456,7 +38456,7 @@
       <c r="L64" s="44"/>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="98"/>
+      <c r="A65" s="124"/>
       <c r="B65" s="41" t="s">
         <v>261</v>
       </c>
@@ -38474,7 +38474,7 @@
       <c r="L65" s="44"/>
     </row>
     <row r="66" spans="1:26">
-      <c r="A66" s="98"/>
+      <c r="A66" s="124"/>
       <c r="B66" s="41"/>
       <c r="C66" s="44"/>
       <c r="D66" s="44"/>
@@ -38488,7 +38488,7 @@
       <c r="L66" s="44"/>
     </row>
     <row r="67" spans="1:26">
-      <c r="A67" s="100">
+      <c r="A67" s="127">
         <v>42632</v>
       </c>
       <c r="B67" s="41" t="s">
@@ -38522,7 +38522,7 @@
       <c r="Z67" s="55"/>
     </row>
     <row r="68" spans="1:26">
-      <c r="A68" s="98"/>
+      <c r="A68" s="124"/>
       <c r="B68" s="41"/>
       <c r="C68" s="52"/>
       <c r="D68" s="52"/>
@@ -38550,7 +38550,7 @@
       <c r="Z68" s="55"/>
     </row>
     <row r="69" spans="1:26">
-      <c r="A69" s="101">
+      <c r="A69" s="130">
         <v>42633</v>
       </c>
       <c r="B69" s="41" t="s">
@@ -38570,7 +38570,7 @@
       <c r="L69" s="44"/>
     </row>
     <row r="70" spans="1:26">
-      <c r="A70" s="98"/>
+      <c r="A70" s="124"/>
       <c r="B70" s="41" t="s">
         <v>262</v>
       </c>
@@ -38588,7 +38588,7 @@
       <c r="L70" s="44"/>
     </row>
     <row r="71" spans="1:26">
-      <c r="A71" s="98"/>
+      <c r="A71" s="124"/>
       <c r="B71" s="41" t="s">
         <v>263</v>
       </c>
@@ -38606,7 +38606,7 @@
       <c r="L71" s="44"/>
     </row>
     <row r="72" spans="1:26">
-      <c r="A72" s="102">
+      <c r="A72" s="131">
         <v>42634</v>
       </c>
       <c r="B72" s="41" t="s">
@@ -38640,7 +38640,7 @@
       <c r="Z72" s="55"/>
     </row>
     <row r="73" spans="1:26">
-      <c r="A73" s="98"/>
+      <c r="A73" s="124"/>
       <c r="B73" s="41" t="s">
         <v>40</v>
       </c>
@@ -38806,7 +38806,7 @@
       <c r="Z79" s="55"/>
     </row>
     <row r="80" spans="1:26">
-      <c r="A80" s="97">
+      <c r="A80" s="123">
         <v>42637</v>
       </c>
       <c r="B80" s="41"/>
@@ -38822,7 +38822,7 @@
       <c r="L80" s="44"/>
     </row>
     <row r="81" spans="1:26">
-      <c r="A81" s="98"/>
+      <c r="A81" s="124"/>
       <c r="B81" s="41"/>
       <c r="C81" s="44"/>
       <c r="D81" s="44"/>
@@ -38836,7 +38836,7 @@
       <c r="L81" s="44"/>
     </row>
     <row r="82" spans="1:26">
-      <c r="A82" s="98"/>
+      <c r="A82" s="124"/>
       <c r="B82" s="41"/>
       <c r="C82" s="44"/>
       <c r="D82" s="44"/>
@@ -38924,7 +38924,7 @@
       <c r="L85" s="44"/>
     </row>
     <row r="86" spans="1:26">
-      <c r="A86" s="100">
+      <c r="A86" s="127">
         <v>42640</v>
       </c>
       <c r="C86" s="52"/>
@@ -38953,7 +38953,7 @@
       <c r="Z86" s="55"/>
     </row>
     <row r="87" spans="1:26">
-      <c r="A87" s="98"/>
+      <c r="A87" s="124"/>
       <c r="C87" s="52"/>
       <c r="D87" s="52"/>
       <c r="E87" s="52"/>
@@ -38980,7 +38980,7 @@
       <c r="Z87" s="55"/>
     </row>
     <row r="88" spans="1:26">
-      <c r="A88" s="98"/>
+      <c r="A88" s="124"/>
       <c r="C88" s="52"/>
       <c r="D88" s="52"/>
       <c r="E88" s="52"/>
@@ -39007,7 +39007,7 @@
       <c r="Z88" s="55"/>
     </row>
     <row r="89" spans="1:26">
-      <c r="A89" s="98"/>
+      <c r="A89" s="124"/>
       <c r="C89" s="52"/>
       <c r="D89" s="52"/>
       <c r="E89" s="52"/>
@@ -39094,7 +39094,7 @@
       <c r="L93" s="44"/>
     </row>
     <row r="94" spans="1:26">
-      <c r="A94" s="100">
+      <c r="A94" s="127">
         <v>42642</v>
       </c>
       <c r="C94" s="52"/>
@@ -39127,7 +39127,7 @@
       <c r="Z94" s="55"/>
     </row>
     <row r="95" spans="1:26">
-      <c r="A95" s="98"/>
+      <c r="A95" s="124"/>
       <c r="C95" s="52"/>
       <c r="D95" s="52"/>
       <c r="E95" s="52"/>
@@ -39154,7 +39154,7 @@
       <c r="Z95" s="55"/>
     </row>
     <row r="96" spans="1:26">
-      <c r="A96" s="97">
+      <c r="A96" s="123">
         <v>42643</v>
       </c>
       <c r="C96" s="43"/>
@@ -39168,22 +39168,22 @@
       <c r="L96" s="44"/>
     </row>
     <row r="97" spans="1:26">
-      <c r="A97" s="98"/>
+      <c r="A97" s="124"/>
       <c r="C97" s="43"/>
       <c r="H97" s="43"/>
     </row>
     <row r="98" spans="1:26">
-      <c r="A98" s="98"/>
+      <c r="A98" s="124"/>
       <c r="C98" s="43"/>
       <c r="H98" s="43"/>
     </row>
     <row r="99" spans="1:26">
-      <c r="A99" s="98"/>
+      <c r="A99" s="124"/>
       <c r="C99" s="43"/>
       <c r="H99" s="43"/>
     </row>
     <row r="100" spans="1:26">
-      <c r="A100" s="105" t="s">
+      <c r="A100" s="133" t="s">
         <v>213</v>
       </c>
       <c r="B100" s="41"/>
@@ -39217,7 +39217,7 @@
       <c r="Z100" s="55"/>
     </row>
     <row r="101" spans="1:26">
-      <c r="A101" s="98"/>
+      <c r="A101" s="124"/>
       <c r="B101" s="41"/>
       <c r="C101" s="71"/>
       <c r="D101" s="88"/>
@@ -39290,6 +39290,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A69:A71"/>
     <mergeCell ref="A86:A89"/>
     <mergeCell ref="A94:A95"/>
@@ -39297,18 +39309,6 @@
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A80:A82"/>
     <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A64:A66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40191,7 +40191,7 @@
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="97">
+      <c r="A19" s="123">
         <v>42430</v>
       </c>
       <c r="B19" t="s">
@@ -40203,7 +40203,7 @@
       <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="98"/>
+      <c r="A20" s="124"/>
       <c r="B20" t="s">
         <v>36</v>
       </c>
@@ -40748,7 +40748,7 @@
       <c r="F25" s="73"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="97">
+      <c r="A26" s="123">
         <v>42829</v>
       </c>
       <c r="B26" s="43" t="s">
@@ -40761,7 +40761,7 @@
       <c r="E26" s="43"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="98"/>
+      <c r="A27" s="124"/>
       <c r="B27" s="43" t="s">
         <v>47</v>
       </c>
@@ -40797,7 +40797,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="97">
+      <c r="A30" s="123">
         <v>42831</v>
       </c>
       <c r="B30" s="43" t="s">
@@ -40810,7 +40810,7 @@
       <c r="E30" s="43"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="98"/>
+      <c r="A31" s="124"/>
       <c r="B31" s="43" t="s">
         <v>51</v>
       </c>
@@ -40821,7 +40821,7 @@
       <c r="E31" s="43"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="98"/>
+      <c r="A32" s="124"/>
       <c r="B32" s="43" t="s">
         <v>52</v>
       </c>
@@ -40832,7 +40832,7 @@
       <c r="E32" s="43"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="97">
+      <c r="A33" s="123">
         <v>42832</v>
       </c>
       <c r="B33" s="43" t="s">
@@ -40845,7 +40845,7 @@
       <c r="E33" s="43"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="98"/>
+      <c r="A34" s="124"/>
       <c r="B34" s="43" t="s">
         <v>53</v>
       </c>
@@ -40856,7 +40856,7 @@
       <c r="E34" s="43"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="98"/>
+      <c r="A35" s="124"/>
       <c r="B35" s="43" t="s">
         <v>42</v>
       </c>
@@ -40867,7 +40867,7 @@
       <c r="E35" s="43"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="97">
+      <c r="A36" s="123">
         <v>42833</v>
       </c>
       <c r="B36" s="43" t="s">
@@ -40880,7 +40880,7 @@
       <c r="E36" s="43"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="98"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="43" t="s">
         <v>55</v>
       </c>
@@ -40891,7 +40891,7 @@
       <c r="E37" s="43"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="98"/>
+      <c r="A38" s="124"/>
       <c r="B38" s="43" t="s">
         <v>47</v>
       </c>
@@ -40902,7 +40902,7 @@
       <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="97">
+      <c r="A39" s="123">
         <v>42834</v>
       </c>
       <c r="B39" s="43" t="s">
@@ -40915,21 +40915,21 @@
       <c r="E39" s="43"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="98"/>
+      <c r="A40" s="124"/>
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="98"/>
+      <c r="A41" s="124"/>
       <c r="B41" s="43"/>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="98"/>
+      <c r="A42" s="124"/>
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
@@ -40982,7 +40982,7 @@
       <c r="E46" s="43"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="97">
+      <c r="A47" s="123">
         <v>42836</v>
       </c>
       <c r="B47" s="43" t="s">
@@ -40995,7 +40995,7 @@
       <c r="E47" s="43"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="98"/>
+      <c r="A48" s="124"/>
       <c r="B48" s="43" t="s">
         <v>58</v>
       </c>
@@ -41006,14 +41006,14 @@
       <c r="E48" s="43"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="98"/>
+      <c r="A49" s="124"/>
       <c r="B49" s="43"/>
       <c r="C49" s="43"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="97">
+      <c r="A50" s="123">
         <v>42837</v>
       </c>
       <c r="B50" s="43" t="s">
@@ -41026,7 +41026,7 @@
       <c r="E50" s="43"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="98"/>
+      <c r="A51" s="124"/>
       <c r="B51" s="43" t="s">
         <v>47</v>
       </c>
@@ -41037,7 +41037,7 @@
       <c r="E51" s="43"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="98"/>
+      <c r="A52" s="124"/>
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
       <c r="D52" s="43"/>
@@ -41179,7 +41179,7 @@
       <c r="E64" s="43"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="97">
+      <c r="A65" s="123">
         <v>42845</v>
       </c>
       <c r="B65" s="41" t="s">
@@ -41192,28 +41192,28 @@
       <c r="E65" s="43"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="98"/>
+      <c r="A66" s="124"/>
       <c r="B66" s="43"/>
       <c r="C66" s="43"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="98"/>
+      <c r="A67" s="124"/>
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="98"/>
+      <c r="A68" s="124"/>
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="97">
+      <c r="A69" s="123">
         <v>42846</v>
       </c>
       <c r="B69" s="43" t="s">
@@ -41226,7 +41226,7 @@
       <c r="E69" s="43"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="98"/>
+      <c r="A70" s="124"/>
       <c r="B70" s="43" t="s">
         <v>64</v>
       </c>
@@ -41248,7 +41248,7 @@
       <c r="E71" s="43"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="97">
+      <c r="A72" s="123">
         <v>42847</v>
       </c>
       <c r="B72" s="42" t="s">
@@ -41261,7 +41261,7 @@
       <c r="E72" s="43"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="98"/>
+      <c r="A73" s="124"/>
       <c r="B73" s="42" t="s">
         <v>67</v>
       </c>
@@ -41403,7 +41403,7 @@
       <c r="E84" s="43"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="97">
+      <c r="A85" s="123">
         <v>42853</v>
       </c>
       <c r="B85" s="43" t="s">
@@ -41416,7 +41416,7 @@
       <c r="E85" s="43"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="98"/>
+      <c r="A86" s="124"/>
       <c r="B86" s="43"/>
       <c r="C86" s="43"/>
       <c r="D86" s="43"/>
@@ -41774,7 +41774,7 @@
       <c r="F22" s="47"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="97">
+      <c r="A23" s="123">
         <v>42857</v>
       </c>
       <c r="B23" t="s">
@@ -41798,7 +41798,7 @@
       <c r="L23" s="44"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="98"/>
+      <c r="A24" s="124"/>
       <c r="B24" t="s">
         <v>47</v>
       </c>
@@ -41816,7 +41816,7 @@
       <c r="L24" s="44"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="98"/>
+      <c r="A25" s="124"/>
       <c r="B25" t="s">
         <v>83</v>
       </c>
@@ -41834,7 +41834,7 @@
       <c r="L25" s="44"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="98"/>
+      <c r="A26" s="124"/>
       <c r="B26" t="s">
         <v>68</v>
       </c>
@@ -41852,7 +41852,7 @@
       <c r="L26" s="44"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="98"/>
+      <c r="A27" s="124"/>
       <c r="C27" s="44"/>
       <c r="D27" s="44"/>
       <c r="E27" s="44"/>
@@ -41865,7 +41865,7 @@
       <c r="L27" s="44"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="98"/>
+      <c r="A28" s="124"/>
       <c r="C28" s="44"/>
       <c r="D28" s="44"/>
       <c r="E28" s="44"/>
@@ -41934,7 +41934,7 @@
       <c r="L31" s="44"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="97">
+      <c r="A32" s="123">
         <v>42859</v>
       </c>
       <c r="B32" t="s">
@@ -41954,7 +41954,7 @@
       <c r="L32" s="44"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="98"/>
+      <c r="A33" s="124"/>
       <c r="B33" t="s">
         <v>86</v>
       </c>
@@ -42010,7 +42010,7 @@
       <c r="L35" s="44"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="97">
+      <c r="A36" s="123">
         <v>42861</v>
       </c>
       <c r="C36" s="44"/>
@@ -42025,7 +42025,7 @@
       <c r="L36" s="44"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="98"/>
+      <c r="A37" s="124"/>
       <c r="C37" s="44"/>
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
@@ -42038,7 +42038,7 @@
       <c r="L37" s="44"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="98"/>
+      <c r="A38" s="124"/>
       <c r="C38" s="44"/>
       <c r="D38" s="44"/>
       <c r="E38" s="44"/>
@@ -42051,7 +42051,7 @@
       <c r="L38" s="44"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="98"/>
+      <c r="A39" s="124"/>
       <c r="C39" s="44"/>
       <c r="D39" s="44"/>
       <c r="E39" s="44"/>
@@ -42305,7 +42305,7 @@
       <c r="L52" s="44"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="97">
+      <c r="A53" s="123">
         <v>42868</v>
       </c>
       <c r="B53" t="s">
@@ -42325,7 +42325,7 @@
       <c r="L53" s="44"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="98"/>
+      <c r="A54" s="124"/>
       <c r="C54" s="44"/>
       <c r="D54" s="44"/>
       <c r="E54" s="44"/>
@@ -42338,7 +42338,7 @@
       <c r="L54" s="44"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="98"/>
+      <c r="A55" s="124"/>
       <c r="C55" s="44"/>
       <c r="D55" s="44"/>
       <c r="E55" s="44"/>
@@ -42453,7 +42453,7 @@
       <c r="L61" s="44"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="97">
+      <c r="A62" s="123">
         <v>42871</v>
       </c>
       <c r="B62" t="s">
@@ -42473,7 +42473,7 @@
       <c r="L62" s="44"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="98"/>
+      <c r="A63" s="124"/>
       <c r="B63" t="s">
         <v>91</v>
       </c>
@@ -42491,7 +42491,7 @@
       <c r="L63" s="44"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="98"/>
+      <c r="A64" s="124"/>
       <c r="C64" s="44"/>
       <c r="D64" s="44"/>
       <c r="E64" s="44"/>
@@ -42615,7 +42615,7 @@
       <c r="L70" s="44"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="97">
+      <c r="A71" s="123">
         <v>42875</v>
       </c>
       <c r="B71" t="s">
@@ -42635,7 +42635,7 @@
       <c r="L71" s="44"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="98"/>
+      <c r="A72" s="124"/>
       <c r="C72" s="44"/>
       <c r="D72" s="44"/>
       <c r="E72" s="44"/>
@@ -42648,7 +42648,7 @@
       <c r="L72" s="44"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="97">
+      <c r="A73" s="123">
         <v>42876</v>
       </c>
       <c r="C73" s="44"/>
@@ -42663,7 +42663,7 @@
       <c r="L73" s="44"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="98"/>
+      <c r="A74" s="124"/>
       <c r="C74" s="44"/>
       <c r="D74" s="44"/>
       <c r="E74" s="44"/>
@@ -42812,7 +42812,7 @@
       <c r="L81" s="44"/>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="97">
+      <c r="A82" s="123">
         <v>42880</v>
       </c>
       <c r="B82" t="s">
@@ -42832,7 +42832,7 @@
       <c r="L82" s="44"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="98"/>
+      <c r="A83" s="124"/>
       <c r="B83" t="s">
         <v>97</v>
       </c>
@@ -42850,7 +42850,7 @@
       <c r="L83" s="44"/>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="98"/>
+      <c r="A84" s="124"/>
       <c r="B84" t="s">
         <v>98</v>
       </c>
@@ -42872,7 +42872,7 @@
       <c r="L84" s="44"/>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="98"/>
+      <c r="A85" s="124"/>
       <c r="C85" s="44"/>
       <c r="D85" s="44"/>
       <c r="E85" s="44"/>
@@ -42953,7 +42953,7 @@
       <c r="L89" s="44"/>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="97">
+      <c r="A90" s="123">
         <v>42884</v>
       </c>
       <c r="C90" s="44"/>
@@ -42968,7 +42968,7 @@
       <c r="L90" s="44"/>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="98"/>
+      <c r="A91" s="124"/>
       <c r="B91" t="s">
         <v>40</v>
       </c>
@@ -42986,7 +42986,7 @@
       <c r="L91" s="44"/>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="98"/>
+      <c r="A92" s="124"/>
       <c r="C92" s="44"/>
       <c r="D92" s="44"/>
       <c r="E92" s="44"/>
@@ -42999,7 +42999,7 @@
       <c r="L92" s="44"/>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="97">
+      <c r="A93" s="123">
         <v>42885</v>
       </c>
       <c r="B93" t="s">
@@ -43019,7 +43019,7 @@
       <c r="L93" s="44"/>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="98"/>
+      <c r="A94" s="124"/>
       <c r="C94" s="44"/>
       <c r="D94" s="44"/>
       <c r="E94" s="44"/>
@@ -43032,7 +43032,7 @@
       <c r="L94" s="44"/>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="98"/>
+      <c r="A95" s="124"/>
       <c r="C95" s="44"/>
       <c r="D95" s="44"/>
       <c r="E95" s="44"/>
@@ -43105,1688 +43105,1688 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="107" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="107" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="107" customWidth="1"/>
-    <col min="4" max="4" width="16" style="107" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="107" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="107" customWidth="1"/>
-    <col min="7" max="8" width="7.5703125" style="107" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="107" customWidth="1"/>
-    <col min="10" max="26" width="7.5703125" style="107" customWidth="1"/>
-    <col min="27" max="16384" width="15.140625" style="107"/>
+    <col min="1" max="1" width="8.140625" style="98" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="98" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="98" customWidth="1"/>
+    <col min="4" max="4" width="16" style="98" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="98" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="98" customWidth="1"/>
+    <col min="7" max="8" width="7.5703125" style="98" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="98" customWidth="1"/>
+    <col min="10" max="26" width="7.5703125" style="98" customWidth="1"/>
+    <col min="27" max="16384" width="15.140625" style="98"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="9" customHeight="1">
-      <c r="A1" s="106"/>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
     </row>
     <row r="2" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="110"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="C4" s="111">
+      <c r="C4" s="102">
         <f>SUM(C7:C14)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="111">
+      <c r="D4" s="102">
         <f>SUM(C5,F5)</f>
         <v>406.12000000000012</v>
       </c>
-      <c r="I4" s="112"/>
+      <c r="I4" s="103"/>
     </row>
     <row r="5" spans="1:26" ht="18.75" customHeight="1">
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="114">
+      <c r="C5" s="105">
         <f>SUM(C19:C101)</f>
         <v>-466.53999999999996</v>
       </c>
-      <c r="D5" s="114">
+      <c r="D5" s="105">
         <f>SUM(E10)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="114">
+      <c r="E5" s="102"/>
+      <c r="F5" s="105">
         <f>SUM(F19:F101)</f>
         <v>872.66000000000008</v>
       </c>
-      <c r="I5" s="115"/>
+      <c r="I5" s="106"/>
     </row>
     <row r="6" spans="1:26" ht="18.75" customHeight="1">
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="116">
+      <c r="C6" s="107">
         <f>QUOTIENT(SUM(C5),COUNT(A19:A100))</f>
         <v>-15</v>
       </c>
-      <c r="D6" s="116">
+      <c r="D6" s="107">
         <f>SUM(C6,F6)</f>
         <v>-6</v>
       </c>
-      <c r="E6" s="111"/>
-      <c r="F6" s="116">
+      <c r="E6" s="102"/>
+      <c r="F6" s="107">
         <f>QUOTIENT(SUM(F5),COUNT(A19:Z100))</f>
         <v>9</v>
       </c>
-      <c r="I6" s="117"/>
+      <c r="I6" s="108"/>
     </row>
     <row r="7" spans="1:26" ht="18.75" customHeight="1">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
     </row>
     <row r="8" spans="1:26" ht="18.75" customHeight="1">
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
     </row>
     <row r="9" spans="1:26" ht="18.75" customHeight="1">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
     </row>
     <row r="10" spans="1:26" ht="18.75" customHeight="1">
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1">
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
     </row>
     <row r="12" spans="1:26" ht="18.75" customHeight="1">
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" customHeight="1">
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
     </row>
     <row r="14" spans="1:26" ht="18.75" customHeight="1">
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="125">
         <v>42522</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="126">
+      <c r="C19" s="116">
         <v>-4.7300000000000004</v>
       </c>
-      <c r="D19" s="111" t="s">
+      <c r="D19" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="111" t="s">
+      <c r="E19" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="111">
+      <c r="F19" s="102">
         <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="127"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
+      <c r="A20" s="126"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="127"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
+      <c r="A21" s="126"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="125">
         <v>42523</v>
       </c>
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="126">
+      <c r="C22" s="116">
         <v>-1.5</v>
       </c>
-      <c r="D22" s="128" t="s">
+      <c r="D22" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="127"/>
-      <c r="B23" s="107" t="s">
+      <c r="A23" s="126"/>
+      <c r="B23" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="126">
+      <c r="C23" s="116">
         <v>-1</v>
       </c>
-      <c r="D23" s="128" t="s">
+      <c r="D23" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="128"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="128"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="127"/>
-      <c r="C24" s="126">
+      <c r="A24" s="126"/>
+      <c r="C24" s="116">
         <v>-22</v>
       </c>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="128"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A25" s="129"/>
-      <c r="C25" s="126">
+      <c r="A25" s="118"/>
+      <c r="C25" s="116">
         <v>-2.4500000000000002</v>
       </c>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="128"/>
-      <c r="K25" s="128"/>
-      <c r="L25" s="128"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A26" s="130">
+      <c r="A26" s="119">
         <v>42524</v>
       </c>
-      <c r="B26" s="131" t="s">
+      <c r="B26" s="120" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="126">
+      <c r="C26" s="116">
         <v>0.22</v>
       </c>
-      <c r="D26" s="128" t="s">
+      <c r="D26" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="128"/>
-      <c r="L26" s="128"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="117"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A27" s="130"/>
-      <c r="B27" s="131" t="s">
+      <c r="A27" s="119"/>
+      <c r="B27" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="126">
+      <c r="C27" s="116">
         <v>-3</v>
       </c>
-      <c r="D27" s="128" t="s">
+      <c r="D27" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="128"/>
-      <c r="L27" s="128"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="117"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A28" s="130"/>
-      <c r="B28" s="131"/>
-      <c r="C28" s="126">
+      <c r="A28" s="119"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="116">
         <v>-3.5</v>
       </c>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="117"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="125">
         <v>42525</v>
       </c>
-      <c r="C29" s="126"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="128"/>
-      <c r="L29" s="128"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="117"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="127"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="128"/>
+      <c r="A30" s="126"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="127"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="128"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="128"/>
+      <c r="A31" s="126"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="130">
+      <c r="A32" s="119">
         <v>42526</v>
       </c>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="128"/>
-      <c r="K32" s="128"/>
-      <c r="L32" s="128"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="125">
         <v>42527</v>
       </c>
-      <c r="B33" s="107" t="s">
+      <c r="B33" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="128">
+      <c r="C33" s="117">
         <v>-4.6500000000000004</v>
       </c>
-      <c r="D33" s="128" t="s">
+      <c r="D33" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="128"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="128"/>
-      <c r="L33" s="128"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="127"/>
-      <c r="B34" s="107" t="s">
+      <c r="A34" s="126"/>
+      <c r="B34" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="128">
+      <c r="C34" s="117">
         <v>-6</v>
       </c>
-      <c r="D34" s="128" t="s">
+      <c r="D34" s="117" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="128"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="128"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="128"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="117"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="127"/>
-      <c r="B35" s="107" t="s">
+      <c r="A35" s="126"/>
+      <c r="B35" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="128">
+      <c r="C35" s="117">
         <v>-2.65</v>
       </c>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="128"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="128"/>
-      <c r="J35" s="128"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="128"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="117"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A36" s="132">
+      <c r="A36" s="121">
         <v>42528</v>
       </c>
-      <c r="B36" s="107" t="s">
+      <c r="B36" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="128">
+      <c r="C36" s="117">
         <v>-2.25</v>
       </c>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="128"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="117"/>
+      <c r="L36" s="117"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="125">
         <v>42529</v>
       </c>
-      <c r="B37" s="107" t="s">
+      <c r="B37" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="128">
+      <c r="C37" s="117">
         <v>-0.6</v>
       </c>
-      <c r="D37" s="128"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="128"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="128"/>
-      <c r="J37" s="128"/>
-      <c r="K37" s="128"/>
-      <c r="L37" s="128"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="117"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="127"/>
-      <c r="B38" s="107" t="s">
+      <c r="A38" s="126"/>
+      <c r="B38" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="128">
+      <c r="C38" s="117">
         <v>-1.75</v>
       </c>
-      <c r="D38" s="128"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="128"/>
-      <c r="J38" s="128"/>
-      <c r="K38" s="128"/>
-      <c r="L38" s="128"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="127"/>
-      <c r="B39" s="107" t="s">
+      <c r="A39" s="126"/>
+      <c r="B39" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="128">
+      <c r="C39" s="117">
         <v>-3</v>
       </c>
-      <c r="D39" s="128"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="128"/>
-      <c r="K39" s="128"/>
-      <c r="L39" s="128"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="117"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="127"/>
-      <c r="B40" s="107" t="s">
+      <c r="A40" s="126"/>
+      <c r="B40" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="128">
+      <c r="C40" s="117">
         <v>-6</v>
       </c>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
-      <c r="J40" s="128"/>
-      <c r="K40" s="128"/>
-      <c r="L40" s="128"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="117"/>
+      <c r="I40" s="117"/>
+      <c r="J40" s="117"/>
+      <c r="K40" s="117"/>
+      <c r="L40" s="117"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A41" s="129"/>
-      <c r="B41" s="107" t="s">
+      <c r="A41" s="118"/>
+      <c r="B41" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="128">
+      <c r="C41" s="117">
         <v>-14.14</v>
       </c>
-      <c r="D41" s="128" t="s">
+      <c r="D41" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="E41" s="128"/>
-      <c r="F41" s="128"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="128"/>
-      <c r="L41" s="128"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="117"/>
+      <c r="J41" s="117"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="117"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A42" s="129"/>
-      <c r="B42" s="107" t="s">
+      <c r="A42" s="118"/>
+      <c r="B42" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="128">
+      <c r="C42" s="117">
         <v>-4.99</v>
       </c>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
-      <c r="J42" s="128"/>
-      <c r="K42" s="128"/>
-      <c r="L42" s="128"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="117"/>
+      <c r="J42" s="117"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="117"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A43" s="132">
+      <c r="A43" s="121">
         <v>42530</v>
       </c>
-      <c r="C43" s="128">
+      <c r="C43" s="117">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="128"/>
-      <c r="K43" s="128"/>
-      <c r="L43" s="128"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="117"/>
+      <c r="J43" s="117"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="117"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A44" s="132"/>
-      <c r="C44" s="128">
+      <c r="A44" s="121"/>
+      <c r="C44" s="117">
         <v>-0.3</v>
       </c>
-      <c r="D44" s="128"/>
-      <c r="E44" s="128"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="128"/>
-      <c r="J44" s="128"/>
-      <c r="K44" s="128"/>
-      <c r="L44" s="128"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="117"/>
+      <c r="K44" s="117"/>
+      <c r="L44" s="117"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A45" s="132"/>
-      <c r="C45" s="128">
+      <c r="A45" s="121"/>
+      <c r="C45" s="117">
         <v>-2.4500000000000002</v>
       </c>
-      <c r="D45" s="128"/>
-      <c r="E45" s="128"/>
-      <c r="F45" s="128"/>
-      <c r="G45" s="128"/>
-      <c r="H45" s="128"/>
-      <c r="I45" s="128"/>
-      <c r="J45" s="128"/>
-      <c r="K45" s="128"/>
-      <c r="L45" s="128"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="117"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="117"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A46" s="132"/>
-      <c r="B46" s="107" t="s">
+      <c r="A46" s="121"/>
+      <c r="B46" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="128">
+      <c r="C46" s="117">
         <v>-1.49</v>
       </c>
-      <c r="D46" s="128" t="s">
+      <c r="D46" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="E46" s="128"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="128"/>
-      <c r="H46" s="128"/>
-      <c r="I46" s="128"/>
-      <c r="J46" s="128"/>
-      <c r="K46" s="128"/>
-      <c r="L46" s="128"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="117"/>
+      <c r="L46" s="117"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="125">
         <v>42531</v>
       </c>
-      <c r="B47" s="107" t="s">
+      <c r="B47" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="128">
+      <c r="C47" s="117">
         <v>-7.34</v>
       </c>
-      <c r="D47" s="128" t="s">
+      <c r="D47" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="E47" s="128"/>
-      <c r="F47" s="128"/>
-      <c r="G47" s="128"/>
-      <c r="H47" s="128"/>
-      <c r="I47" s="128"/>
-      <c r="J47" s="128"/>
-      <c r="K47" s="128"/>
-      <c r="L47" s="128"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="117"/>
+      <c r="K47" s="117"/>
+      <c r="L47" s="117"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="127"/>
-      <c r="C48" s="128"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="128"/>
-      <c r="F48" s="128"/>
-      <c r="G48" s="128"/>
-      <c r="H48" s="128"/>
-      <c r="I48" s="128"/>
-      <c r="J48" s="128"/>
-      <c r="K48" s="128"/>
-      <c r="L48" s="128"/>
+      <c r="A48" s="126"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="117"/>
+      <c r="J48" s="117"/>
+      <c r="K48" s="117"/>
+      <c r="L48" s="117"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="127"/>
-      <c r="C49" s="128"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="128"/>
-      <c r="F49" s="128"/>
-      <c r="G49" s="128"/>
-      <c r="H49" s="128"/>
-      <c r="I49" s="128"/>
-      <c r="J49" s="128"/>
-      <c r="K49" s="128"/>
-      <c r="L49" s="128"/>
+      <c r="A49" s="126"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="117"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="117"/>
+      <c r="I49" s="117"/>
+      <c r="J49" s="117"/>
+      <c r="K49" s="117"/>
+      <c r="L49" s="117"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A50" s="132">
+      <c r="A50" s="121">
         <v>42532</v>
       </c>
-      <c r="C50" s="128"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="128"/>
-      <c r="F50" s="128"/>
-      <c r="G50" s="128"/>
-      <c r="H50" s="128"/>
-      <c r="I50" s="128"/>
-      <c r="J50" s="128"/>
-      <c r="K50" s="128"/>
-      <c r="L50" s="128"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="117"/>
+      <c r="E50" s="117"/>
+      <c r="F50" s="117"/>
+      <c r="G50" s="117"/>
+      <c r="H50" s="117"/>
+      <c r="I50" s="117"/>
+      <c r="J50" s="117"/>
+      <c r="K50" s="117"/>
+      <c r="L50" s="117"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A51" s="132">
+      <c r="A51" s="121">
         <v>42533</v>
       </c>
-      <c r="B51" s="107" t="s">
+      <c r="B51" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="128">
+      <c r="C51" s="117">
         <v>-1.5</v>
       </c>
-      <c r="D51" s="128"/>
-      <c r="E51" s="128"/>
-      <c r="F51" s="128"/>
-      <c r="G51" s="128"/>
-      <c r="H51" s="128"/>
-      <c r="I51" s="128"/>
-      <c r="J51" s="128"/>
-      <c r="K51" s="128"/>
-      <c r="L51" s="128"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="117"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="117"/>
+      <c r="I51" s="117"/>
+      <c r="J51" s="117"/>
+      <c r="K51" s="117"/>
+      <c r="L51" s="117"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A52" s="132"/>
-      <c r="B52" s="107" t="s">
+      <c r="A52" s="121"/>
+      <c r="B52" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="128">
+      <c r="C52" s="117">
         <v>-1.59</v>
       </c>
-      <c r="D52" s="128"/>
-      <c r="E52" s="128"/>
-      <c r="F52" s="128"/>
-      <c r="G52" s="128"/>
-      <c r="H52" s="128"/>
-      <c r="I52" s="128"/>
-      <c r="J52" s="128"/>
-      <c r="K52" s="128"/>
-      <c r="L52" s="128"/>
+      <c r="D52" s="117"/>
+      <c r="E52" s="117"/>
+      <c r="F52" s="117"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="117"/>
+      <c r="I52" s="117"/>
+      <c r="J52" s="117"/>
+      <c r="K52" s="117"/>
+      <c r="L52" s="117"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="125">
         <v>42534</v>
       </c>
-      <c r="B53" s="107" t="s">
+      <c r="B53" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="128">
+      <c r="C53" s="117">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="D53" s="128"/>
-      <c r="E53" s="128"/>
-      <c r="F53" s="128"/>
-      <c r="G53" s="128"/>
-      <c r="H53" s="128"/>
-      <c r="I53" s="128"/>
-      <c r="J53" s="128"/>
-      <c r="K53" s="128"/>
-      <c r="L53" s="128"/>
+      <c r="D53" s="117"/>
+      <c r="E53" s="117"/>
+      <c r="F53" s="117"/>
+      <c r="G53" s="117"/>
+      <c r="H53" s="117"/>
+      <c r="I53" s="117"/>
+      <c r="J53" s="117"/>
+      <c r="K53" s="117"/>
+      <c r="L53" s="117"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="127"/>
-      <c r="B54" s="107" t="s">
+      <c r="A54" s="126"/>
+      <c r="B54" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="128">
+      <c r="C54" s="117">
         <v>-2.19</v>
       </c>
-      <c r="D54" s="128" t="s">
+      <c r="D54" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="E54" s="128"/>
-      <c r="F54" s="128"/>
-      <c r="G54" s="128"/>
-      <c r="H54" s="128"/>
-      <c r="I54" s="128"/>
-      <c r="J54" s="128"/>
-      <c r="K54" s="128"/>
-      <c r="L54" s="128"/>
+      <c r="E54" s="117"/>
+      <c r="F54" s="117"/>
+      <c r="G54" s="117"/>
+      <c r="H54" s="117"/>
+      <c r="I54" s="117"/>
+      <c r="J54" s="117"/>
+      <c r="K54" s="117"/>
+      <c r="L54" s="117"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="127"/>
-      <c r="B55" s="107" t="s">
+      <c r="A55" s="126"/>
+      <c r="B55" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="128">
+      <c r="C55" s="117">
         <v>-7.85</v>
       </c>
-      <c r="D55" s="128" t="s">
+      <c r="D55" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="E55" s="128"/>
-      <c r="F55" s="128"/>
-      <c r="G55" s="128"/>
-      <c r="H55" s="128"/>
-      <c r="I55" s="128"/>
-      <c r="J55" s="128"/>
-      <c r="K55" s="128"/>
-      <c r="L55" s="128"/>
+      <c r="E55" s="117"/>
+      <c r="F55" s="117"/>
+      <c r="G55" s="117"/>
+      <c r="H55" s="117"/>
+      <c r="I55" s="117"/>
+      <c r="J55" s="117"/>
+      <c r="K55" s="117"/>
+      <c r="L55" s="117"/>
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A56" s="130">
+      <c r="A56" s="119">
         <v>42535</v>
       </c>
-      <c r="B56" s="107" t="s">
+      <c r="B56" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="128">
+      <c r="C56" s="117">
         <v>-2.6</v>
       </c>
-      <c r="D56" s="128"/>
-      <c r="E56" s="128"/>
-      <c r="F56" s="128"/>
-      <c r="G56" s="128"/>
-      <c r="H56" s="128"/>
-      <c r="I56" s="128"/>
-      <c r="J56" s="128"/>
-      <c r="K56" s="128"/>
-      <c r="L56" s="128"/>
+      <c r="D56" s="117"/>
+      <c r="E56" s="117"/>
+      <c r="F56" s="117"/>
+      <c r="G56" s="117"/>
+      <c r="H56" s="117"/>
+      <c r="I56" s="117"/>
+      <c r="J56" s="117"/>
+      <c r="K56" s="117"/>
+      <c r="L56" s="117"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="125">
         <v>42536</v>
       </c>
-      <c r="B57" s="107" t="s">
+      <c r="B57" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="128">
+      <c r="C57" s="117">
         <v>-1.5</v>
       </c>
-      <c r="D57" s="128"/>
-      <c r="E57" s="128"/>
-      <c r="F57" s="128"/>
-      <c r="G57" s="128"/>
-      <c r="H57" s="128"/>
-      <c r="I57" s="128"/>
-      <c r="J57" s="128"/>
-      <c r="K57" s="128"/>
-      <c r="L57" s="128"/>
+      <c r="D57" s="117"/>
+      <c r="E57" s="117"/>
+      <c r="F57" s="117"/>
+      <c r="G57" s="117"/>
+      <c r="H57" s="117"/>
+      <c r="I57" s="117"/>
+      <c r="J57" s="117"/>
+      <c r="K57" s="117"/>
+      <c r="L57" s="117"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="127"/>
-      <c r="B58" s="107" t="s">
+      <c r="A58" s="126"/>
+      <c r="B58" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="128">
+      <c r="C58" s="117">
         <v>-10</v>
       </c>
-      <c r="D58" s="128"/>
-      <c r="E58" s="128"/>
-      <c r="F58" s="128"/>
-      <c r="G58" s="128"/>
-      <c r="H58" s="128"/>
-      <c r="I58" s="128"/>
-      <c r="J58" s="128"/>
-      <c r="K58" s="128"/>
-      <c r="L58" s="128"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="117"/>
+      <c r="F58" s="117"/>
+      <c r="G58" s="117"/>
+      <c r="H58" s="117"/>
+      <c r="I58" s="117"/>
+      <c r="J58" s="117"/>
+      <c r="K58" s="117"/>
+      <c r="L58" s="117"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="127"/>
-      <c r="C59" s="128"/>
-      <c r="D59" s="128"/>
-      <c r="E59" s="128"/>
-      <c r="F59" s="128"/>
-      <c r="G59" s="128"/>
-      <c r="H59" s="128"/>
-      <c r="I59" s="128"/>
-      <c r="J59" s="128"/>
-      <c r="K59" s="128"/>
-      <c r="L59" s="128"/>
+      <c r="A59" s="126"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="117"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="117"/>
+      <c r="H59" s="117"/>
+      <c r="I59" s="117"/>
+      <c r="J59" s="117"/>
+      <c r="K59" s="117"/>
+      <c r="L59" s="117"/>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="125">
         <v>42537</v>
       </c>
-      <c r="B60" s="107" t="s">
+      <c r="B60" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="128">
+      <c r="C60" s="117">
         <v>-1.75</v>
       </c>
-      <c r="D60" s="128"/>
-      <c r="E60" s="128"/>
-      <c r="F60" s="128"/>
-      <c r="G60" s="128"/>
-      <c r="H60" s="128"/>
-      <c r="I60" s="128"/>
-      <c r="J60" s="128"/>
-      <c r="K60" s="128"/>
-      <c r="L60" s="128"/>
+      <c r="D60" s="117"/>
+      <c r="E60" s="117"/>
+      <c r="F60" s="117"/>
+      <c r="G60" s="117"/>
+      <c r="H60" s="117"/>
+      <c r="I60" s="117"/>
+      <c r="J60" s="117"/>
+      <c r="K60" s="117"/>
+      <c r="L60" s="117"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="127"/>
-      <c r="B61" s="107" t="s">
+      <c r="A61" s="126"/>
+      <c r="B61" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="C61" s="128">
+      <c r="C61" s="117">
         <v>-8.82</v>
       </c>
-      <c r="D61" s="128" t="s">
+      <c r="D61" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="E61" s="128"/>
-      <c r="F61" s="128"/>
-      <c r="G61" s="128"/>
-      <c r="H61" s="128"/>
-      <c r="I61" s="128"/>
-      <c r="J61" s="128"/>
-      <c r="K61" s="128"/>
-      <c r="L61" s="128"/>
+      <c r="E61" s="117"/>
+      <c r="F61" s="117"/>
+      <c r="G61" s="117"/>
+      <c r="H61" s="117"/>
+      <c r="I61" s="117"/>
+      <c r="J61" s="117"/>
+      <c r="K61" s="117"/>
+      <c r="L61" s="117"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="127"/>
-      <c r="B62" s="107" t="s">
+      <c r="A62" s="126"/>
+      <c r="B62" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="128">
+      <c r="C62" s="117">
         <v>-2.4500000000000002</v>
       </c>
-      <c r="D62" s="128" t="s">
+      <c r="D62" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="E62" s="128"/>
-      <c r="F62" s="128"/>
-      <c r="G62" s="128"/>
-      <c r="H62" s="128"/>
-      <c r="I62" s="128"/>
-      <c r="J62" s="128"/>
-      <c r="K62" s="128"/>
-      <c r="L62" s="128"/>
+      <c r="E62" s="117"/>
+      <c r="F62" s="117"/>
+      <c r="G62" s="117"/>
+      <c r="H62" s="117"/>
+      <c r="I62" s="117"/>
+      <c r="J62" s="117"/>
+      <c r="K62" s="117"/>
+      <c r="L62" s="117"/>
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A63" s="130">
+      <c r="A63" s="119">
         <v>42538</v>
       </c>
-      <c r="C63" s="128"/>
-      <c r="D63" s="128"/>
-      <c r="E63" s="128"/>
-      <c r="F63" s="128"/>
-      <c r="G63" s="128"/>
-      <c r="H63" s="128"/>
-      <c r="I63" s="128"/>
-      <c r="J63" s="128"/>
-      <c r="K63" s="128"/>
-      <c r="L63" s="128"/>
+      <c r="C63" s="117"/>
+      <c r="D63" s="117"/>
+      <c r="E63" s="117"/>
+      <c r="F63" s="117"/>
+      <c r="G63" s="117"/>
+      <c r="H63" s="117"/>
+      <c r="I63" s="117"/>
+      <c r="J63" s="117"/>
+      <c r="K63" s="117"/>
+      <c r="L63" s="117"/>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="125">
         <v>42539</v>
       </c>
-      <c r="B64" s="107" t="s">
+      <c r="B64" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="C64" s="128">
+      <c r="C64" s="117">
         <v>-19.190000000000001</v>
       </c>
-      <c r="D64" s="128"/>
-      <c r="E64" s="128"/>
-      <c r="F64" s="128"/>
-      <c r="G64" s="128"/>
-      <c r="H64" s="128"/>
-      <c r="I64" s="128"/>
-      <c r="J64" s="128"/>
-      <c r="K64" s="128"/>
-      <c r="L64" s="128"/>
+      <c r="D64" s="117"/>
+      <c r="E64" s="117"/>
+      <c r="F64" s="117"/>
+      <c r="G64" s="117"/>
+      <c r="H64" s="117"/>
+      <c r="I64" s="117"/>
+      <c r="J64" s="117"/>
+      <c r="K64" s="117"/>
+      <c r="L64" s="117"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="127"/>
-      <c r="B65" s="107" t="s">
+      <c r="A65" s="126"/>
+      <c r="B65" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="C65" s="128">
+      <c r="C65" s="117">
         <v>-1</v>
       </c>
-      <c r="D65" s="128"/>
-      <c r="E65" s="128"/>
-      <c r="F65" s="128"/>
-      <c r="G65" s="128"/>
-      <c r="H65" s="128"/>
-      <c r="I65" s="128"/>
-      <c r="J65" s="128"/>
-      <c r="K65" s="128"/>
-      <c r="L65" s="128"/>
+      <c r="D65" s="117"/>
+      <c r="E65" s="117"/>
+      <c r="F65" s="117"/>
+      <c r="G65" s="117"/>
+      <c r="H65" s="117"/>
+      <c r="I65" s="117"/>
+      <c r="J65" s="117"/>
+      <c r="K65" s="117"/>
+      <c r="L65" s="117"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="127"/>
-      <c r="C66" s="128"/>
-      <c r="D66" s="128"/>
-      <c r="E66" s="128"/>
-      <c r="F66" s="128"/>
-      <c r="G66" s="128"/>
-      <c r="H66" s="128"/>
-      <c r="I66" s="128"/>
-      <c r="J66" s="128"/>
-      <c r="K66" s="128"/>
-      <c r="L66" s="128"/>
+      <c r="A66" s="126"/>
+      <c r="C66" s="117"/>
+      <c r="D66" s="117"/>
+      <c r="E66" s="117"/>
+      <c r="F66" s="117"/>
+      <c r="G66" s="117"/>
+      <c r="H66" s="117"/>
+      <c r="I66" s="117"/>
+      <c r="J66" s="117"/>
+      <c r="K66" s="117"/>
+      <c r="L66" s="117"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="127"/>
-      <c r="C67" s="128"/>
-      <c r="D67" s="128"/>
-      <c r="E67" s="128"/>
-      <c r="F67" s="128"/>
-      <c r="G67" s="128"/>
-      <c r="H67" s="128"/>
-      <c r="I67" s="128"/>
-      <c r="J67" s="128"/>
-      <c r="K67" s="128"/>
-      <c r="L67" s="128"/>
+      <c r="A67" s="126"/>
+      <c r="C67" s="117"/>
+      <c r="D67" s="117"/>
+      <c r="E67" s="117"/>
+      <c r="F67" s="117"/>
+      <c r="G67" s="117"/>
+      <c r="H67" s="117"/>
+      <c r="I67" s="117"/>
+      <c r="J67" s="117"/>
+      <c r="K67" s="117"/>
+      <c r="L67" s="117"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="127"/>
-      <c r="C68" s="128"/>
-      <c r="D68" s="128"/>
-      <c r="E68" s="128"/>
-      <c r="F68" s="128"/>
-      <c r="G68" s="128"/>
-      <c r="H68" s="128"/>
-      <c r="I68" s="128"/>
-      <c r="J68" s="128"/>
-      <c r="K68" s="128"/>
-      <c r="L68" s="128"/>
+      <c r="A68" s="126"/>
+      <c r="C68" s="117"/>
+      <c r="D68" s="117"/>
+      <c r="E68" s="117"/>
+      <c r="F68" s="117"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="117"/>
+      <c r="K68" s="117"/>
+      <c r="L68" s="117"/>
     </row>
     <row r="69" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A69" s="130">
+      <c r="A69" s="119">
         <v>42540</v>
       </c>
-      <c r="B69" s="107" t="s">
+      <c r="B69" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="C69" s="128">
+      <c r="C69" s="117">
         <v>-1.5</v>
       </c>
-      <c r="D69" s="128"/>
-      <c r="E69" s="128"/>
-      <c r="F69" s="128"/>
-      <c r="G69" s="128"/>
-      <c r="H69" s="128"/>
-      <c r="I69" s="128"/>
-      <c r="J69" s="128"/>
-      <c r="K69" s="128"/>
-      <c r="L69" s="128"/>
+      <c r="D69" s="117"/>
+      <c r="E69" s="117"/>
+      <c r="F69" s="117"/>
+      <c r="G69" s="117"/>
+      <c r="H69" s="117"/>
+      <c r="I69" s="117"/>
+      <c r="J69" s="117"/>
+      <c r="K69" s="117"/>
+      <c r="L69" s="117"/>
     </row>
     <row r="70" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A70" s="130"/>
-      <c r="B70" s="107" t="s">
+      <c r="A70" s="119"/>
+      <c r="B70" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="128">
+      <c r="C70" s="117">
         <v>-5.23</v>
       </c>
-      <c r="D70" s="128" t="s">
+      <c r="D70" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="E70" s="128"/>
-      <c r="F70" s="128"/>
-      <c r="G70" s="128"/>
-      <c r="H70" s="128"/>
-      <c r="I70" s="128"/>
-      <c r="J70" s="128"/>
-      <c r="K70" s="128"/>
-      <c r="L70" s="128"/>
+      <c r="E70" s="117"/>
+      <c r="F70" s="117"/>
+      <c r="G70" s="117"/>
+      <c r="H70" s="117"/>
+      <c r="I70" s="117"/>
+      <c r="J70" s="117"/>
+      <c r="K70" s="117"/>
+      <c r="L70" s="117"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="125">
         <v>42541</v>
       </c>
-      <c r="C71" s="128"/>
-      <c r="D71" s="128"/>
-      <c r="E71" s="128"/>
-      <c r="F71" s="128"/>
-      <c r="G71" s="128"/>
-      <c r="H71" s="128"/>
-      <c r="I71" s="128"/>
-      <c r="J71" s="128"/>
-      <c r="K71" s="128"/>
-      <c r="L71" s="128"/>
+      <c r="C71" s="117"/>
+      <c r="D71" s="117"/>
+      <c r="E71" s="117"/>
+      <c r="F71" s="117"/>
+      <c r="G71" s="117"/>
+      <c r="H71" s="117"/>
+      <c r="I71" s="117"/>
+      <c r="J71" s="117"/>
+      <c r="K71" s="117"/>
+      <c r="L71" s="117"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="127"/>
-      <c r="B72" s="107" t="s">
+      <c r="A72" s="126"/>
+      <c r="B72" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="C72" s="128">
+      <c r="C72" s="117">
         <v>-1.75</v>
       </c>
-      <c r="D72" s="128"/>
-      <c r="E72" s="128"/>
-      <c r="F72" s="128"/>
-      <c r="G72" s="128"/>
-      <c r="H72" s="128"/>
-      <c r="I72" s="128"/>
-      <c r="J72" s="128"/>
-      <c r="K72" s="128"/>
-      <c r="L72" s="128"/>
+      <c r="D72" s="117"/>
+      <c r="E72" s="117"/>
+      <c r="F72" s="117"/>
+      <c r="G72" s="117"/>
+      <c r="H72" s="117"/>
+      <c r="I72" s="117"/>
+      <c r="J72" s="117"/>
+      <c r="K72" s="117"/>
+      <c r="L72" s="117"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="127"/>
-      <c r="C73" s="128"/>
-      <c r="D73" s="128"/>
-      <c r="E73" s="128"/>
-      <c r="F73" s="128"/>
-      <c r="G73" s="128"/>
-      <c r="H73" s="128"/>
-      <c r="I73" s="128"/>
-      <c r="J73" s="128"/>
-      <c r="K73" s="128"/>
-      <c r="L73" s="128"/>
+      <c r="A73" s="126"/>
+      <c r="C73" s="117"/>
+      <c r="D73" s="117"/>
+      <c r="E73" s="117"/>
+      <c r="F73" s="117"/>
+      <c r="G73" s="117"/>
+      <c r="H73" s="117"/>
+      <c r="I73" s="117"/>
+      <c r="J73" s="117"/>
+      <c r="K73" s="117"/>
+      <c r="L73" s="117"/>
     </row>
     <row r="74" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A74" s="132">
+      <c r="A74" s="121">
         <v>42542</v>
       </c>
-      <c r="B74" s="107" t="s">
+      <c r="B74" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="C74" s="128">
+      <c r="C74" s="117">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="D74" s="128"/>
-      <c r="E74" s="128"/>
-      <c r="F74" s="128"/>
-      <c r="G74" s="128"/>
-      <c r="H74" s="128"/>
-      <c r="I74" s="128"/>
-      <c r="J74" s="128"/>
-      <c r="K74" s="128"/>
-      <c r="L74" s="128"/>
+      <c r="D74" s="117"/>
+      <c r="E74" s="117"/>
+      <c r="F74" s="117"/>
+      <c r="G74" s="117"/>
+      <c r="H74" s="117"/>
+      <c r="I74" s="117"/>
+      <c r="J74" s="117"/>
+      <c r="K74" s="117"/>
+      <c r="L74" s="117"/>
     </row>
     <row r="75" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A75" s="132"/>
-      <c r="B75" s="107" t="s">
+      <c r="A75" s="121"/>
+      <c r="B75" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="C75" s="128">
+      <c r="C75" s="117">
         <v>-1</v>
       </c>
-      <c r="D75" s="128"/>
-      <c r="E75" s="128"/>
-      <c r="F75" s="128"/>
-      <c r="G75" s="128"/>
-      <c r="H75" s="128"/>
-      <c r="I75" s="128"/>
-      <c r="J75" s="128"/>
-      <c r="K75" s="128"/>
-      <c r="L75" s="128"/>
+      <c r="D75" s="117"/>
+      <c r="E75" s="117"/>
+      <c r="F75" s="117"/>
+      <c r="G75" s="117"/>
+      <c r="H75" s="117"/>
+      <c r="I75" s="117"/>
+      <c r="J75" s="117"/>
+      <c r="K75" s="117"/>
+      <c r="L75" s="117"/>
     </row>
     <row r="76" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A76" s="132">
+      <c r="A76" s="121">
         <v>42543</v>
       </c>
-      <c r="B76" s="131"/>
-      <c r="C76" s="128"/>
-      <c r="D76" s="128"/>
-      <c r="E76" s="128"/>
-      <c r="F76" s="128"/>
-      <c r="G76" s="128"/>
-      <c r="H76" s="128"/>
-      <c r="I76" s="128"/>
-      <c r="J76" s="128"/>
-      <c r="K76" s="128"/>
-      <c r="L76" s="128"/>
+      <c r="B76" s="120"/>
+      <c r="C76" s="117"/>
+      <c r="D76" s="117"/>
+      <c r="E76" s="117"/>
+      <c r="F76" s="117"/>
+      <c r="G76" s="117"/>
+      <c r="H76" s="117"/>
+      <c r="I76" s="117"/>
+      <c r="J76" s="117"/>
+      <c r="K76" s="117"/>
+      <c r="L76" s="117"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="125">
         <v>42544</v>
       </c>
-      <c r="B77" s="107" t="s">
+      <c r="B77" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="128">
+      <c r="C77" s="117">
         <v>-2.6</v>
       </c>
-      <c r="D77" s="128"/>
-      <c r="E77" s="128"/>
-      <c r="F77" s="128"/>
-      <c r="G77" s="128"/>
-      <c r="H77" s="128"/>
-      <c r="I77" s="128"/>
-      <c r="J77" s="128"/>
-      <c r="K77" s="128"/>
-      <c r="L77" s="128"/>
+      <c r="D77" s="117"/>
+      <c r="E77" s="117"/>
+      <c r="F77" s="117"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="117"/>
+      <c r="I77" s="117"/>
+      <c r="J77" s="117"/>
+      <c r="K77" s="117"/>
+      <c r="L77" s="117"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="127"/>
-      <c r="C78" s="128"/>
-      <c r="D78" s="128"/>
-      <c r="E78" s="128"/>
-      <c r="F78" s="128"/>
-      <c r="G78" s="128"/>
-      <c r="H78" s="128"/>
-      <c r="I78" s="128"/>
-      <c r="J78" s="128"/>
-      <c r="K78" s="128"/>
-      <c r="L78" s="128"/>
+      <c r="A78" s="126"/>
+      <c r="C78" s="117"/>
+      <c r="D78" s="117"/>
+      <c r="E78" s="117"/>
+      <c r="F78" s="117"/>
+      <c r="G78" s="117"/>
+      <c r="H78" s="117"/>
+      <c r="I78" s="117"/>
+      <c r="J78" s="117"/>
+      <c r="K78" s="117"/>
+      <c r="L78" s="117"/>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="127"/>
-      <c r="C79" s="128"/>
-      <c r="D79" s="128"/>
-      <c r="E79" s="128"/>
-      <c r="F79" s="128"/>
-      <c r="G79" s="128"/>
-      <c r="H79" s="128"/>
-      <c r="I79" s="128"/>
-      <c r="J79" s="128"/>
-      <c r="K79" s="128"/>
-      <c r="L79" s="128"/>
+      <c r="A79" s="126"/>
+      <c r="C79" s="117"/>
+      <c r="D79" s="117"/>
+      <c r="E79" s="117"/>
+      <c r="F79" s="117"/>
+      <c r="G79" s="117"/>
+      <c r="H79" s="117"/>
+      <c r="I79" s="117"/>
+      <c r="J79" s="117"/>
+      <c r="K79" s="117"/>
+      <c r="L79" s="117"/>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="127"/>
-      <c r="C80" s="128"/>
-      <c r="D80" s="128"/>
-      <c r="E80" s="128"/>
-      <c r="F80" s="128"/>
-      <c r="G80" s="128"/>
-      <c r="H80" s="128"/>
-      <c r="I80" s="128"/>
-      <c r="J80" s="128"/>
-      <c r="K80" s="128"/>
-      <c r="L80" s="128"/>
+      <c r="A80" s="126"/>
+      <c r="C80" s="117"/>
+      <c r="D80" s="117"/>
+      <c r="E80" s="117"/>
+      <c r="F80" s="117"/>
+      <c r="G80" s="117"/>
+      <c r="H80" s="117"/>
+      <c r="I80" s="117"/>
+      <c r="J80" s="117"/>
+      <c r="K80" s="117"/>
+      <c r="L80" s="117"/>
     </row>
     <row r="81" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A81" s="130">
+      <c r="A81" s="119">
         <v>42179</v>
       </c>
-      <c r="B81" s="107" t="s">
+      <c r="B81" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="C81" s="128">
+      <c r="C81" s="117">
         <v>-13.49</v>
       </c>
-      <c r="D81" s="128" t="s">
+      <c r="D81" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="E81" s="128"/>
-      <c r="F81" s="128"/>
-      <c r="G81" s="128"/>
-      <c r="H81" s="128"/>
-      <c r="I81" s="128"/>
-      <c r="J81" s="128"/>
-      <c r="K81" s="128"/>
-      <c r="L81" s="128"/>
+      <c r="E81" s="117"/>
+      <c r="F81" s="117"/>
+      <c r="G81" s="117"/>
+      <c r="H81" s="117"/>
+      <c r="I81" s="117"/>
+      <c r="J81" s="117"/>
+      <c r="K81" s="117"/>
+      <c r="L81" s="117"/>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="125">
         <v>42546</v>
       </c>
-      <c r="C82" s="128"/>
-      <c r="D82" s="128"/>
-      <c r="E82" s="128"/>
-      <c r="F82" s="128">
+      <c r="C82" s="117"/>
+      <c r="D82" s="117"/>
+      <c r="E82" s="117"/>
+      <c r="F82" s="117">
         <v>85</v>
       </c>
-      <c r="G82" s="128"/>
-      <c r="H82" s="128"/>
-      <c r="I82" s="128"/>
-      <c r="J82" s="128"/>
-      <c r="K82" s="128"/>
-      <c r="L82" s="128"/>
+      <c r="G82" s="117"/>
+      <c r="H82" s="117"/>
+      <c r="I82" s="117"/>
+      <c r="J82" s="117"/>
+      <c r="K82" s="117"/>
+      <c r="L82" s="117"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="127"/>
-      <c r="C83" s="128"/>
-      <c r="D83" s="128"/>
-      <c r="E83" s="128"/>
-      <c r="F83" s="128"/>
-      <c r="G83" s="128"/>
-      <c r="H83" s="128"/>
-      <c r="I83" s="128"/>
-      <c r="J83" s="128"/>
-      <c r="K83" s="128"/>
-      <c r="L83" s="128"/>
+      <c r="A83" s="126"/>
+      <c r="C83" s="117"/>
+      <c r="D83" s="117"/>
+      <c r="E83" s="117"/>
+      <c r="F83" s="117"/>
+      <c r="G83" s="117"/>
+      <c r="H83" s="117"/>
+      <c r="I83" s="117"/>
+      <c r="J83" s="117"/>
+      <c r="K83" s="117"/>
+      <c r="L83" s="117"/>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="127"/>
-      <c r="C84" s="128"/>
-      <c r="D84" s="128"/>
-      <c r="E84" s="128"/>
-      <c r="F84" s="128"/>
-      <c r="G84" s="128"/>
-      <c r="H84" s="128"/>
-      <c r="I84" s="128"/>
-      <c r="J84" s="128"/>
-      <c r="K84" s="128"/>
-      <c r="L84" s="128"/>
+      <c r="A84" s="126"/>
+      <c r="C84" s="117"/>
+      <c r="D84" s="117"/>
+      <c r="E84" s="117"/>
+      <c r="F84" s="117"/>
+      <c r="G84" s="117"/>
+      <c r="H84" s="117"/>
+      <c r="I84" s="117"/>
+      <c r="J84" s="117"/>
+      <c r="K84" s="117"/>
+      <c r="L84" s="117"/>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="127"/>
-      <c r="C85" s="128"/>
-      <c r="D85" s="128"/>
-      <c r="E85" s="128"/>
-      <c r="F85" s="128"/>
-      <c r="G85" s="128"/>
-      <c r="H85" s="128"/>
-      <c r="I85" s="128"/>
-      <c r="J85" s="128"/>
-      <c r="K85" s="128"/>
-      <c r="L85" s="128"/>
+      <c r="A85" s="126"/>
+      <c r="C85" s="117"/>
+      <c r="D85" s="117"/>
+      <c r="E85" s="117"/>
+      <c r="F85" s="117"/>
+      <c r="G85" s="117"/>
+      <c r="H85" s="117"/>
+      <c r="I85" s="117"/>
+      <c r="J85" s="117"/>
+      <c r="K85" s="117"/>
+      <c r="L85" s="117"/>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="125">
         <v>42547</v>
       </c>
-      <c r="B86" s="107" t="s">
+      <c r="B86" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="C86" s="128">
+      <c r="C86" s="117">
         <v>-0.4</v>
       </c>
-      <c r="D86" s="128" t="s">
+      <c r="D86" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="E86" s="128"/>
-      <c r="F86" s="128">
+      <c r="E86" s="117"/>
+      <c r="F86" s="117">
         <v>100</v>
       </c>
-      <c r="G86" s="128"/>
-      <c r="H86" s="128"/>
-      <c r="I86" s="128"/>
-      <c r="J86" s="128"/>
-      <c r="K86" s="128"/>
-      <c r="L86" s="128"/>
+      <c r="G86" s="117"/>
+      <c r="H86" s="117"/>
+      <c r="I86" s="117"/>
+      <c r="J86" s="117"/>
+      <c r="K86" s="117"/>
+      <c r="L86" s="117"/>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="127"/>
-      <c r="B87" s="107" t="s">
+      <c r="A87" s="126"/>
+      <c r="B87" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="C87" s="128">
+      <c r="C87" s="117">
         <v>-1.75</v>
       </c>
-      <c r="D87" s="128" t="s">
+      <c r="D87" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="E87" s="128"/>
-      <c r="F87" s="128"/>
-      <c r="G87" s="128"/>
-      <c r="H87" s="128"/>
-      <c r="I87" s="128"/>
-      <c r="J87" s="128"/>
-      <c r="K87" s="128"/>
-      <c r="L87" s="128"/>
+      <c r="E87" s="117"/>
+      <c r="F87" s="117"/>
+      <c r="G87" s="117"/>
+      <c r="H87" s="117"/>
+      <c r="I87" s="117"/>
+      <c r="J87" s="117"/>
+      <c r="K87" s="117"/>
+      <c r="L87" s="117"/>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="127"/>
-      <c r="C88" s="128"/>
-      <c r="D88" s="128"/>
-      <c r="E88" s="128"/>
-      <c r="F88" s="128"/>
-      <c r="G88" s="128"/>
-      <c r="H88" s="128"/>
-      <c r="I88" s="128"/>
-      <c r="J88" s="128"/>
-      <c r="K88" s="128"/>
-      <c r="L88" s="128"/>
+      <c r="A88" s="126"/>
+      <c r="C88" s="117"/>
+      <c r="D88" s="117"/>
+      <c r="E88" s="117"/>
+      <c r="F88" s="117"/>
+      <c r="G88" s="117"/>
+      <c r="H88" s="117"/>
+      <c r="I88" s="117"/>
+      <c r="J88" s="117"/>
+      <c r="K88" s="117"/>
+      <c r="L88" s="117"/>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="127"/>
-      <c r="C89" s="128"/>
-      <c r="D89" s="128"/>
-      <c r="E89" s="128"/>
-      <c r="F89" s="128"/>
-      <c r="G89" s="128"/>
-      <c r="H89" s="128"/>
-      <c r="I89" s="128"/>
-      <c r="J89" s="128"/>
-      <c r="K89" s="128"/>
-      <c r="L89" s="128"/>
+      <c r="A89" s="126"/>
+      <c r="C89" s="117"/>
+      <c r="D89" s="117"/>
+      <c r="E89" s="117"/>
+      <c r="F89" s="117"/>
+      <c r="G89" s="117"/>
+      <c r="H89" s="117"/>
+      <c r="I89" s="117"/>
+      <c r="J89" s="117"/>
+      <c r="K89" s="117"/>
+      <c r="L89" s="117"/>
     </row>
     <row r="90" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A90" s="130">
+      <c r="A90" s="119">
         <v>42548</v>
       </c>
-      <c r="B90" s="107" t="s">
+      <c r="B90" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="C90" s="128">
+      <c r="C90" s="117">
         <v>-1.5</v>
       </c>
-      <c r="D90" s="128" t="s">
+      <c r="D90" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="E90" s="128"/>
-      <c r="F90" s="128"/>
-      <c r="G90" s="128"/>
-      <c r="H90" s="128"/>
-      <c r="I90" s="128"/>
-      <c r="J90" s="128"/>
-      <c r="K90" s="128"/>
-      <c r="L90" s="128"/>
+      <c r="E90" s="117"/>
+      <c r="F90" s="117"/>
+      <c r="G90" s="117"/>
+      <c r="H90" s="117"/>
+      <c r="I90" s="117"/>
+      <c r="J90" s="117"/>
+      <c r="K90" s="117"/>
+      <c r="L90" s="117"/>
     </row>
     <row r="91" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A91" s="130"/>
-      <c r="B91" s="107" t="s">
+      <c r="A91" s="119"/>
+      <c r="B91" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="C91" s="128">
+      <c r="C91" s="117">
         <v>-9.91</v>
       </c>
-      <c r="D91" s="128" t="s">
+      <c r="D91" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="E91" s="128"/>
-      <c r="F91" s="128"/>
-      <c r="G91" s="128"/>
-      <c r="H91" s="128"/>
-      <c r="I91" s="128"/>
-      <c r="J91" s="128"/>
-      <c r="K91" s="128"/>
-      <c r="L91" s="128"/>
+      <c r="E91" s="117"/>
+      <c r="F91" s="117"/>
+      <c r="G91" s="117"/>
+      <c r="H91" s="117"/>
+      <c r="I91" s="117"/>
+      <c r="J91" s="117"/>
+      <c r="K91" s="117"/>
+      <c r="L91" s="117"/>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="125">
         <v>42549</v>
       </c>
-      <c r="B92" s="107" t="s">
+      <c r="B92" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="C92" s="128">
+      <c r="C92" s="117">
         <v>-4</v>
       </c>
-      <c r="D92" s="128" t="s">
+      <c r="D92" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="E92" s="128"/>
-      <c r="F92" s="128"/>
-      <c r="G92" s="128"/>
-      <c r="H92" s="128"/>
-      <c r="I92" s="128"/>
-      <c r="J92" s="128"/>
-      <c r="K92" s="128"/>
-      <c r="L92" s="128"/>
+      <c r="E92" s="117"/>
+      <c r="F92" s="117"/>
+      <c r="G92" s="117"/>
+      <c r="H92" s="117"/>
+      <c r="I92" s="117"/>
+      <c r="J92" s="117"/>
+      <c r="K92" s="117"/>
+      <c r="L92" s="117"/>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="127"/>
-      <c r="B93" s="107" t="s">
+      <c r="A93" s="126"/>
+      <c r="B93" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="C93" s="128">
+      <c r="C93" s="117">
         <v>-13.5</v>
       </c>
-      <c r="D93" s="128" t="s">
+      <c r="D93" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="E93" s="128"/>
-      <c r="F93" s="128"/>
-      <c r="G93" s="128"/>
-      <c r="H93" s="128"/>
-      <c r="I93" s="128"/>
-      <c r="J93" s="128"/>
-      <c r="K93" s="128"/>
-      <c r="L93" s="128"/>
+      <c r="E93" s="117"/>
+      <c r="F93" s="117"/>
+      <c r="G93" s="117"/>
+      <c r="H93" s="117"/>
+      <c r="I93" s="117"/>
+      <c r="J93" s="117"/>
+      <c r="K93" s="117"/>
+      <c r="L93" s="117"/>
     </row>
     <row r="94" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A94" s="129"/>
-      <c r="B94" s="107" t="s">
+      <c r="A94" s="118"/>
+      <c r="B94" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="C94" s="128">
+      <c r="C94" s="117">
         <v>-2</v>
       </c>
-      <c r="D94" s="128" t="s">
+      <c r="D94" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="E94" s="128"/>
-      <c r="F94" s="128"/>
-      <c r="G94" s="128"/>
-      <c r="H94" s="128"/>
-      <c r="I94" s="128"/>
-      <c r="J94" s="128"/>
-      <c r="K94" s="128"/>
-      <c r="L94" s="128"/>
+      <c r="E94" s="117"/>
+      <c r="F94" s="117"/>
+      <c r="G94" s="117"/>
+      <c r="H94" s="117"/>
+      <c r="I94" s="117"/>
+      <c r="J94" s="117"/>
+      <c r="K94" s="117"/>
+      <c r="L94" s="117"/>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="125">
         <v>42550</v>
       </c>
-      <c r="B95" s="107" t="s">
+      <c r="B95" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="C95" s="128">
+      <c r="C95" s="117">
         <v>-2</v>
       </c>
-      <c r="D95" s="128"/>
-      <c r="E95" s="128"/>
-      <c r="F95" s="128"/>
-      <c r="G95" s="128"/>
-      <c r="H95" s="128"/>
-      <c r="I95" s="128"/>
-      <c r="J95" s="128"/>
-      <c r="K95" s="128"/>
-      <c r="L95" s="128"/>
+      <c r="D95" s="117"/>
+      <c r="E95" s="117"/>
+      <c r="F95" s="117"/>
+      <c r="G95" s="117"/>
+      <c r="H95" s="117"/>
+      <c r="I95" s="117"/>
+      <c r="J95" s="117"/>
+      <c r="K95" s="117"/>
+      <c r="L95" s="117"/>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="127"/>
-      <c r="B96" s="107" t="s">
+      <c r="A96" s="126"/>
+      <c r="B96" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="C96" s="128">
+      <c r="C96" s="117">
         <v>-3.9</v>
       </c>
-      <c r="D96" s="128" t="s">
+      <c r="D96" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="E96" s="128"/>
-      <c r="F96" s="128">
+      <c r="E96" s="117"/>
+      <c r="F96" s="117">
         <v>437.66</v>
       </c>
-      <c r="G96" s="128"/>
-      <c r="H96" s="128"/>
-      <c r="I96" s="128"/>
-      <c r="J96" s="128"/>
-      <c r="K96" s="128"/>
-      <c r="L96" s="128"/>
+      <c r="G96" s="117"/>
+      <c r="H96" s="117"/>
+      <c r="I96" s="117"/>
+      <c r="J96" s="117"/>
+      <c r="K96" s="117"/>
+      <c r="L96" s="117"/>
     </row>
     <row r="97" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A97" s="130">
+      <c r="A97" s="119">
         <v>42399</v>
       </c>
-      <c r="B97" s="107" t="s">
+      <c r="B97" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="C97" s="128">
+      <c r="C97" s="117">
         <v>-2</v>
       </c>
-      <c r="D97" s="128" t="s">
+      <c r="D97" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="E97" s="128"/>
-      <c r="F97" s="128"/>
-      <c r="G97" s="128"/>
-      <c r="H97" s="128"/>
-      <c r="I97" s="128"/>
-      <c r="J97" s="128"/>
-      <c r="K97" s="128"/>
-      <c r="L97" s="128"/>
+      <c r="E97" s="117"/>
+      <c r="F97" s="117"/>
+      <c r="G97" s="117"/>
+      <c r="H97" s="117"/>
+      <c r="I97" s="117"/>
+      <c r="J97" s="117"/>
+      <c r="K97" s="117"/>
+      <c r="L97" s="117"/>
     </row>
     <row r="98" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A98" s="130"/>
-      <c r="B98" s="107" t="s">
+      <c r="A98" s="119"/>
+      <c r="B98" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="C98" s="128">
+      <c r="C98" s="117">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="D98" s="128" t="s">
+      <c r="D98" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="E98" s="128"/>
-      <c r="F98" s="128"/>
-      <c r="G98" s="128"/>
-      <c r="H98" s="128"/>
-      <c r="I98" s="128"/>
-      <c r="J98" s="128"/>
-      <c r="K98" s="128"/>
-      <c r="L98" s="128"/>
+      <c r="E98" s="117"/>
+      <c r="F98" s="117"/>
+      <c r="G98" s="117"/>
+      <c r="H98" s="117"/>
+      <c r="I98" s="117"/>
+      <c r="J98" s="117"/>
+      <c r="K98" s="117"/>
+      <c r="L98" s="117"/>
     </row>
     <row r="99" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A99" s="130"/>
-      <c r="B99" s="107" t="s">
+      <c r="A99" s="119"/>
+      <c r="B99" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="133">
+      <c r="C99" s="122">
         <v>-226</v>
       </c>
-      <c r="D99" s="128" t="s">
+      <c r="D99" s="117" t="s">
         <v>270</v>
       </c>
-      <c r="E99" s="128"/>
-      <c r="F99" s="128"/>
-      <c r="G99" s="128"/>
-      <c r="H99" s="128"/>
-      <c r="I99" s="128"/>
-      <c r="J99" s="128"/>
-      <c r="K99" s="128"/>
-      <c r="L99" s="128"/>
+      <c r="E99" s="117"/>
+      <c r="F99" s="117"/>
+      <c r="G99" s="117"/>
+      <c r="H99" s="117"/>
+      <c r="I99" s="117"/>
+      <c r="J99" s="117"/>
+      <c r="K99" s="117"/>
+      <c r="L99" s="117"/>
     </row>
     <row r="100" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A100" s="130"/>
-      <c r="B100" s="107" t="s">
+      <c r="A100" s="119"/>
+      <c r="B100" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="C100" s="133">
+      <c r="C100" s="122">
         <v>-10</v>
       </c>
-      <c r="D100" s="128" t="s">
+      <c r="D100" s="117" t="s">
         <v>112</v>
       </c>
-      <c r="E100" s="128"/>
-      <c r="F100" s="128"/>
-      <c r="G100" s="128"/>
-      <c r="H100" s="128"/>
-      <c r="I100" s="128"/>
-      <c r="J100" s="128"/>
-      <c r="K100" s="128"/>
-      <c r="L100" s="128"/>
+      <c r="E100" s="117"/>
+      <c r="F100" s="117"/>
+      <c r="G100" s="117"/>
+      <c r="H100" s="117"/>
+      <c r="I100" s="117"/>
+      <c r="J100" s="117"/>
+      <c r="K100" s="117"/>
+      <c r="L100" s="117"/>
     </row>
     <row r="101" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A101" s="130"/>
-      <c r="C101" s="126"/>
-      <c r="D101" s="111"/>
-      <c r="E101" s="111"/>
-      <c r="F101" s="111"/>
+      <c r="A101" s="119"/>
+      <c r="C101" s="116"/>
+      <c r="D101" s="102"/>
+      <c r="E101" s="102"/>
+      <c r="F101" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A53:A55"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A77:A80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45250,7 +45250,7 @@
       <c r="O27" s="55"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="97">
+      <c r="A28" s="123">
         <v>42555</v>
       </c>
       <c r="B28" t="s">
@@ -45270,7 +45270,7 @@
       <c r="L28" s="44"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="98"/>
+      <c r="A29" s="124"/>
       <c r="C29" s="48"/>
       <c r="D29" s="44"/>
       <c r="E29" s="44"/>
@@ -45287,7 +45287,7 @@
       <c r="L29" s="44"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="99">
+      <c r="A30" s="129">
         <v>42556</v>
       </c>
       <c r="B30" t="s">
@@ -45310,7 +45310,7 @@
       <c r="O30" s="55"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="98"/>
+      <c r="A31" s="124"/>
       <c r="B31" t="s">
         <v>50</v>
       </c>
@@ -45352,7 +45352,7 @@
       <c r="O32" s="55"/>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="97">
+      <c r="A33" s="123">
         <v>42557</v>
       </c>
       <c r="B33" t="s">
@@ -45372,7 +45372,7 @@
       <c r="L33" s="44"/>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="98"/>
+      <c r="A34" s="124"/>
       <c r="C34" s="44"/>
       <c r="D34" s="44"/>
       <c r="E34" s="44"/>
@@ -45385,7 +45385,7 @@
       <c r="L34" s="44"/>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="102">
+      <c r="A35" s="131">
         <v>42558</v>
       </c>
       <c r="B35" t="s">
@@ -45408,7 +45408,7 @@
       <c r="O35" s="55"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="98"/>
+      <c r="A36" s="124"/>
       <c r="C36" s="44"/>
       <c r="D36" s="52"/>
       <c r="E36" s="52"/>
@@ -45424,7 +45424,7 @@
       <c r="O36" s="55"/>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" s="98"/>
+      <c r="A37" s="124"/>
       <c r="C37" s="44"/>
       <c r="D37" s="52"/>
       <c r="E37" s="52"/>
@@ -45440,7 +45440,7 @@
       <c r="O37" s="55"/>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" s="98"/>
+      <c r="A38" s="124"/>
       <c r="C38" s="44"/>
       <c r="D38" s="52"/>
       <c r="E38" s="52"/>
@@ -45456,7 +45456,7 @@
       <c r="O38" s="55"/>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="98"/>
+      <c r="A39" s="124"/>
       <c r="C39" s="44"/>
       <c r="D39" s="52"/>
       <c r="E39" s="52"/>
@@ -45472,7 +45472,7 @@
       <c r="O39" s="55"/>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40" s="97">
+      <c r="A40" s="123">
         <v>42559</v>
       </c>
       <c r="B40" t="s">
@@ -45492,7 +45492,7 @@
       <c r="L40" s="44"/>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="98"/>
+      <c r="A41" s="124"/>
       <c r="B41" t="s">
         <v>95</v>
       </c>
@@ -45514,7 +45514,7 @@
       <c r="L41" s="44"/>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="102">
+      <c r="A42" s="131">
         <v>42560</v>
       </c>
       <c r="C42" s="44"/>
@@ -45537,7 +45537,7 @@
       <c r="P42" s="55"/>
     </row>
     <row r="43" spans="1:21">
-      <c r="A43" s="98"/>
+      <c r="A43" s="124"/>
       <c r="C43" s="44"/>
       <c r="D43" s="52"/>
       <c r="E43" s="52"/>
@@ -45558,7 +45558,7 @@
       <c r="P43" s="55"/>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="98"/>
+      <c r="A44" s="124"/>
       <c r="C44" s="44"/>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
@@ -45590,7 +45590,7 @@
       <c r="L45" s="44"/>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="102">
+      <c r="A46" s="131">
         <v>42562</v>
       </c>
       <c r="B46" t="s">
@@ -45619,7 +45619,7 @@
       <c r="U46" s="55"/>
     </row>
     <row r="47" spans="1:21">
-      <c r="A47" s="98"/>
+      <c r="A47" s="124"/>
       <c r="C47" s="44"/>
       <c r="D47" s="52"/>
       <c r="E47" s="52"/>
@@ -45641,7 +45641,7 @@
       <c r="U47" s="55"/>
     </row>
     <row r="48" spans="1:21">
-      <c r="A48" s="98"/>
+      <c r="A48" s="124"/>
       <c r="C48" s="44"/>
       <c r="D48" s="52"/>
       <c r="E48" s="52"/>
@@ -45663,7 +45663,7 @@
       <c r="U48" s="55"/>
     </row>
     <row r="49" spans="1:21">
-      <c r="A49" s="98"/>
+      <c r="A49" s="124"/>
       <c r="C49" s="44"/>
       <c r="D49" s="52"/>
       <c r="E49" s="52"/>
@@ -45723,7 +45723,7 @@
       <c r="L51" s="44"/>
     </row>
     <row r="52" spans="1:21">
-      <c r="A52" s="100">
+      <c r="A52" s="127">
         <v>42564</v>
       </c>
       <c r="B52" s="41"/>
@@ -45742,7 +45742,7 @@
       <c r="O52" s="55"/>
     </row>
     <row r="53" spans="1:21">
-      <c r="A53" s="98"/>
+      <c r="A53" s="124"/>
       <c r="B53" s="41"/>
       <c r="C53" s="73"/>
       <c r="D53" s="52"/>
@@ -45759,7 +45759,7 @@
       <c r="O53" s="55"/>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="98"/>
+      <c r="A54" s="124"/>
       <c r="C54" s="44"/>
       <c r="D54" s="52"/>
       <c r="E54" s="52"/>
@@ -45775,7 +45775,7 @@
       <c r="O54" s="55"/>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="97">
+      <c r="A55" s="123">
         <v>42565</v>
       </c>
       <c r="B55" t="s">
@@ -45795,7 +45795,7 @@
       <c r="L55" s="44"/>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="98"/>
+      <c r="A56" s="124"/>
       <c r="C56" s="44"/>
       <c r="D56" s="44"/>
       <c r="E56" s="44"/>
@@ -45808,7 +45808,7 @@
       <c r="L56" s="44"/>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="98"/>
+      <c r="A57" s="124"/>
       <c r="C57" s="44"/>
       <c r="D57" s="44"/>
       <c r="E57" s="44"/>
@@ -45821,7 +45821,7 @@
       <c r="L57" s="44"/>
     </row>
     <row r="58" spans="1:21">
-      <c r="A58" s="100">
+      <c r="A58" s="127">
         <v>42566</v>
       </c>
       <c r="B58" t="s">
@@ -45844,7 +45844,7 @@
       <c r="O58" s="55"/>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" s="98"/>
+      <c r="A59" s="124"/>
       <c r="C59" s="44"/>
       <c r="D59" s="52"/>
       <c r="E59" s="52"/>
@@ -45939,7 +45939,7 @@
       <c r="L63" s="44"/>
     </row>
     <row r="64" spans="1:21">
-      <c r="A64" s="100">
+      <c r="A64" s="127">
         <v>42570</v>
       </c>
       <c r="B64" t="s">
@@ -45964,7 +45964,7 @@
       <c r="Q64" s="55"/>
     </row>
     <row r="65" spans="1:20">
-      <c r="A65" s="98"/>
+      <c r="A65" s="124"/>
       <c r="B65" t="s">
         <v>138</v>
       </c>
@@ -45991,7 +45991,7 @@
       <c r="Q65" s="55"/>
     </row>
     <row r="66" spans="1:20">
-      <c r="A66" s="98"/>
+      <c r="A66" s="124"/>
       <c r="C66" s="44"/>
       <c r="D66" s="52"/>
       <c r="E66" s="52"/>
@@ -46028,7 +46028,7 @@
       <c r="L67" s="44"/>
     </row>
     <row r="68" spans="1:20">
-      <c r="A68" s="102">
+      <c r="A68" s="131">
         <v>42572</v>
       </c>
       <c r="B68" t="s">
@@ -46051,7 +46051,7 @@
       <c r="O68" s="55"/>
     </row>
     <row r="69" spans="1:20">
-      <c r="A69" s="98"/>
+      <c r="A69" s="124"/>
       <c r="B69" t="s">
         <v>138</v>
       </c>
@@ -46093,7 +46093,7 @@
       <c r="O70" s="55"/>
     </row>
     <row r="71" spans="1:20">
-      <c r="A71" s="101">
+      <c r="A71" s="130">
         <v>42573</v>
       </c>
       <c r="B71" s="45" t="s">
@@ -46113,7 +46113,7 @@
       <c r="L71" s="44"/>
     </row>
     <row r="72" spans="1:20">
-      <c r="A72" s="98"/>
+      <c r="A72" s="124"/>
       <c r="B72" s="45"/>
       <c r="C72" s="44"/>
       <c r="D72" s="44"/>
@@ -46127,7 +46127,7 @@
       <c r="L72" s="44"/>
     </row>
     <row r="73" spans="1:20">
-      <c r="A73" s="100">
+      <c r="A73" s="127">
         <v>42574</v>
       </c>
       <c r="C73" s="44"/>
@@ -46145,7 +46145,7 @@
       <c r="O73" s="55"/>
     </row>
     <row r="74" spans="1:20">
-      <c r="A74" s="98"/>
+      <c r="A74" s="124"/>
       <c r="C74" s="44"/>
       <c r="D74" s="52"/>
       <c r="E74" s="52"/>
@@ -46161,7 +46161,7 @@
       <c r="O74" s="55"/>
     </row>
     <row r="75" spans="1:20">
-      <c r="A75" s="98"/>
+      <c r="A75" s="124"/>
       <c r="C75" s="44"/>
       <c r="D75" s="52"/>
       <c r="E75" s="52"/>
@@ -46177,7 +46177,7 @@
       <c r="O75" s="55"/>
     </row>
     <row r="76" spans="1:20">
-      <c r="A76" s="103">
+      <c r="A76" s="128">
         <v>42575</v>
       </c>
       <c r="C76" s="44"/>
@@ -46192,7 +46192,7 @@
       <c r="L76" s="44"/>
     </row>
     <row r="77" spans="1:20">
-      <c r="A77" s="98"/>
+      <c r="A77" s="124"/>
       <c r="C77" s="44"/>
       <c r="D77" s="44"/>
       <c r="E77" s="44"/>
@@ -46205,7 +46205,7 @@
       <c r="L77" s="44"/>
     </row>
     <row r="78" spans="1:20">
-      <c r="A78" s="100">
+      <c r="A78" s="127">
         <v>42576</v>
       </c>
       <c r="C78" s="44"/>
@@ -46232,7 +46232,7 @@
       <c r="T78" s="55"/>
     </row>
     <row r="79" spans="1:20">
-      <c r="A79" s="98"/>
+      <c r="A79" s="124"/>
       <c r="C79" s="44"/>
       <c r="D79" s="52"/>
       <c r="E79" s="52"/>
@@ -46253,7 +46253,7 @@
       <c r="T79" s="55"/>
     </row>
     <row r="80" spans="1:20">
-      <c r="A80" s="98"/>
+      <c r="A80" s="124"/>
       <c r="C80" s="44"/>
       <c r="D80" s="52"/>
       <c r="E80" s="52"/>
@@ -46274,7 +46274,7 @@
       <c r="T80" s="55"/>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="97">
+      <c r="A81" s="123">
         <v>42577</v>
       </c>
       <c r="B81" s="41"/>
@@ -46290,7 +46290,7 @@
       <c r="L81" s="44"/>
     </row>
     <row r="82" spans="1:15">
-      <c r="A82" s="98"/>
+      <c r="A82" s="124"/>
       <c r="C82" s="44"/>
       <c r="D82" s="44"/>
       <c r="E82" s="44"/>
@@ -46303,7 +46303,7 @@
       <c r="L82" s="44"/>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="100">
+      <c r="A83" s="127">
         <v>42578</v>
       </c>
       <c r="C83" s="44"/>
@@ -46325,7 +46325,7 @@
       <c r="O83" s="55"/>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="98"/>
+      <c r="A84" s="124"/>
       <c r="C84" s="44"/>
       <c r="D84" s="52"/>
       <c r="E84" s="52"/>
@@ -46341,7 +46341,7 @@
       <c r="O84" s="55"/>
     </row>
     <row r="85" spans="1:15">
-      <c r="A85" s="98"/>
+      <c r="A85" s="124"/>
       <c r="C85" s="44"/>
       <c r="D85" s="52"/>
       <c r="E85" s="52"/>
@@ -46357,7 +46357,7 @@
       <c r="O85" s="55"/>
     </row>
     <row r="86" spans="1:15">
-      <c r="A86" s="97">
+      <c r="A86" s="123">
         <v>42579</v>
       </c>
       <c r="C86" s="44"/>
@@ -46371,7 +46371,7 @@
       <c r="L86" s="44"/>
     </row>
     <row r="87" spans="1:15">
-      <c r="A87" s="98"/>
+      <c r="A87" s="124"/>
       <c r="F87" s="44"/>
       <c r="G87" s="44"/>
       <c r="H87" s="44"/>
@@ -46381,7 +46381,7 @@
       <c r="L87" s="44"/>
     </row>
     <row r="88" spans="1:15">
-      <c r="A88" s="100">
+      <c r="A88" s="127">
         <v>42580</v>
       </c>
       <c r="C88" s="44"/>
@@ -46398,7 +46398,7 @@
       <c r="N88" s="55"/>
     </row>
     <row r="89" spans="1:15">
-      <c r="A89" s="98"/>
+      <c r="A89" s="124"/>
       <c r="C89" s="44"/>
       <c r="D89" s="52"/>
       <c r="E89" s="52"/>
@@ -46413,7 +46413,7 @@
       <c r="N89" s="55"/>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="98"/>
+      <c r="A90" s="124"/>
       <c r="C90" s="44"/>
       <c r="D90" s="52"/>
       <c r="E90" s="52"/>
@@ -46428,7 +46428,7 @@
       <c r="N90" s="55"/>
     </row>
     <row r="91" spans="1:15">
-      <c r="A91" s="98"/>
+      <c r="A91" s="124"/>
       <c r="C91" s="44"/>
       <c r="D91" s="52"/>
       <c r="E91" s="52"/>
@@ -46443,7 +46443,7 @@
       <c r="N91" s="55"/>
     </row>
     <row r="92" spans="1:15">
-      <c r="A92" s="98"/>
+      <c r="A92" s="124"/>
       <c r="C92" s="44"/>
       <c r="D92" s="52"/>
       <c r="E92" s="52"/>
@@ -46458,7 +46458,7 @@
       <c r="N92" s="55"/>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="98"/>
+      <c r="A93" s="124"/>
       <c r="C93" s="44"/>
       <c r="D93" s="52"/>
       <c r="E93" s="52"/>
@@ -46473,7 +46473,7 @@
       <c r="N93" s="55"/>
     </row>
     <row r="94" spans="1:15">
-      <c r="A94" s="98"/>
+      <c r="A94" s="124"/>
       <c r="B94" s="60"/>
       <c r="C94" s="44"/>
       <c r="D94" s="52"/>
@@ -46489,7 +46489,7 @@
       <c r="N94" s="55"/>
     </row>
     <row r="95" spans="1:15">
-      <c r="A95" s="98"/>
+      <c r="A95" s="124"/>
       <c r="C95" s="44"/>
       <c r="D95" s="52"/>
       <c r="E95" s="52"/>
@@ -46504,7 +46504,7 @@
       <c r="N95" s="55"/>
     </row>
     <row r="96" spans="1:15">
-      <c r="A96" s="97">
+      <c r="A96" s="123">
         <v>42581</v>
       </c>
       <c r="C96" s="43"/>
@@ -46518,19 +46518,19 @@
       <c r="L96" s="44"/>
     </row>
     <row r="97" spans="1:17">
-      <c r="A97" s="98"/>
+      <c r="A97" s="124"/>
       <c r="C97" s="43"/>
     </row>
     <row r="98" spans="1:17">
-      <c r="A98" s="98"/>
+      <c r="A98" s="124"/>
       <c r="C98" s="43"/>
     </row>
     <row r="99" spans="1:17">
-      <c r="A99" s="98"/>
+      <c r="A99" s="124"/>
       <c r="C99" s="43"/>
     </row>
     <row r="100" spans="1:17">
-      <c r="A100" s="98"/>
+      <c r="A100" s="124"/>
       <c r="C100" s="43"/>
     </row>
     <row r="101" spans="1:17">
@@ -46570,12 +46570,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A81:A82"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A28:A29"/>
@@ -46591,6 +46585,12 @@
     <mergeCell ref="A46:A49"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A81:A82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -46839,7 +46839,7 @@
       <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="100">
+      <c r="A19" s="127">
         <v>42583</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -46877,7 +46877,7 @@
       <c r="Z19" s="55"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="98"/>
+      <c r="A20" s="124"/>
       <c r="B20" s="41" t="s">
         <v>148</v>
       </c>
@@ -46913,7 +46913,7 @@
       <c r="Z20" s="55"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="98"/>
+      <c r="A21" s="124"/>
       <c r="B21" s="56" t="s">
         <v>134</v>
       </c>
@@ -46963,7 +46963,7 @@
       <c r="L22" s="44"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="100">
+      <c r="A23" s="127">
         <v>42585</v>
       </c>
       <c r="B23" s="54" t="s">
@@ -46997,7 +46997,7 @@
       <c r="Z23" s="55"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="98"/>
+      <c r="A24" s="124"/>
       <c r="B24" s="58" t="s">
         <v>150</v>
       </c>
@@ -47033,7 +47033,7 @@
       <c r="Z24" s="55"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="97">
+      <c r="A25" s="123">
         <v>42586</v>
       </c>
       <c r="B25" s="54" t="s">
@@ -47051,7 +47051,7 @@
       <c r="L25" s="44"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="98"/>
+      <c r="A26" s="124"/>
       <c r="B26" s="54" t="s">
         <v>151</v>
       </c>
@@ -47067,7 +47067,7 @@
       <c r="L26" s="44"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="98"/>
+      <c r="A27" s="124"/>
       <c r="B27" s="54" t="s">
         <v>152</v>
       </c>
@@ -47083,7 +47083,7 @@
       <c r="L27" s="44"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="100">
+      <c r="A28" s="127">
         <v>42587</v>
       </c>
       <c r="B28" s="54" t="s">
@@ -47117,7 +47117,7 @@
       <c r="Z28" s="55"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="98"/>
+      <c r="A29" s="124"/>
       <c r="B29" s="54" t="s">
         <v>41</v>
       </c>
@@ -47149,7 +47149,7 @@
       <c r="Z29" s="55"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="98"/>
+      <c r="A30" s="124"/>
       <c r="B30" s="56" t="s">
         <v>134</v>
       </c>
@@ -47181,7 +47181,7 @@
       <c r="Z30" s="55"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="97">
+      <c r="A31" s="123">
         <v>42588</v>
       </c>
       <c r="B31" s="54" t="s">
@@ -47205,7 +47205,7 @@
       <c r="L31" s="44"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="98"/>
+      <c r="A32" s="124"/>
       <c r="B32" s="54" t="s">
         <v>155</v>
       </c>
@@ -47223,7 +47223,7 @@
       <c r="L32" s="44"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="98"/>
+      <c r="A33" s="124"/>
       <c r="B33" s="59" t="s">
         <v>156</v>
       </c>
@@ -47241,7 +47241,7 @@
       <c r="L33" s="44"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="98"/>
+      <c r="A34" s="124"/>
       <c r="B34" s="41" t="s">
         <v>157</v>
       </c>
@@ -47259,7 +47259,7 @@
       <c r="L34" s="44"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="98"/>
+      <c r="A35" s="124"/>
       <c r="B35" s="54" t="s">
         <v>158</v>
       </c>
@@ -47277,7 +47277,7 @@
       <c r="L35" s="44"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="98"/>
+      <c r="A36" s="124"/>
       <c r="B36" s="54" t="s">
         <v>159</v>
       </c>
@@ -47295,7 +47295,7 @@
       <c r="L36" s="44"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="98"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="59" t="s">
         <v>160</v>
       </c>
@@ -47313,7 +47313,7 @@
       <c r="L37" s="44"/>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="102">
+      <c r="A38" s="131">
         <v>42589</v>
       </c>
       <c r="B38" s="54" t="s">
@@ -47347,7 +47347,7 @@
       <c r="Z38" s="55"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="98"/>
+      <c r="A39" s="124"/>
       <c r="B39" s="54" t="s">
         <v>162</v>
       </c>
@@ -47379,7 +47379,7 @@
       <c r="Z39" s="55"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="97">
+      <c r="A40" s="123">
         <v>42590</v>
       </c>
       <c r="B40" s="54" t="s">
@@ -47399,7 +47399,7 @@
       <c r="L40" s="44"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="98"/>
+      <c r="A41" s="124"/>
       <c r="B41" s="41" t="s">
         <v>163</v>
       </c>
@@ -47416,7 +47416,7 @@
       <c r="L41" s="44"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="102">
+      <c r="A42" s="131">
         <v>42591</v>
       </c>
       <c r="B42" s="54" t="s">
@@ -47450,7 +47450,7 @@
       <c r="Z42" s="55"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="98"/>
+      <c r="A43" s="124"/>
       <c r="B43" s="54" t="s">
         <v>164</v>
       </c>
@@ -47482,7 +47482,7 @@
       <c r="Z43" s="55"/>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="98"/>
+      <c r="A44" s="124"/>
       <c r="B44" s="58" t="s">
         <v>165</v>
       </c>
@@ -47518,7 +47518,7 @@
       <c r="Z44" s="55"/>
     </row>
     <row r="45" spans="1:26">
-      <c r="A45" s="97">
+      <c r="A45" s="123">
         <v>42592</v>
       </c>
       <c r="B45" s="54" t="s">
@@ -47538,7 +47538,7 @@
       <c r="L45" s="44"/>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="98"/>
+      <c r="A46" s="124"/>
       <c r="B46" s="54" t="s">
         <v>162</v>
       </c>
@@ -47556,7 +47556,7 @@
       <c r="L46" s="44"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="98"/>
+      <c r="A47" s="124"/>
       <c r="B47" s="41" t="s">
         <v>166</v>
       </c>
@@ -47574,7 +47574,7 @@
       <c r="L47" s="44"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="A48" s="98"/>
+      <c r="A48" s="124"/>
       <c r="B48" s="59" t="s">
         <v>167</v>
       </c>
@@ -47626,7 +47626,7 @@
       <c r="Z49" s="55"/>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="101">
+      <c r="A50" s="130">
         <v>42594</v>
       </c>
       <c r="B50" s="54" t="s">
@@ -47655,7 +47655,7 @@
       <c r="L50" s="44"/>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="98"/>
+      <c r="A51" s="124"/>
       <c r="B51" s="54" t="s">
         <v>170</v>
       </c>
@@ -47673,7 +47673,7 @@
       <c r="L51" s="44"/>
     </row>
     <row r="52" spans="1:26">
-      <c r="A52" s="98"/>
+      <c r="A52" s="124"/>
       <c r="B52" s="56" t="s">
         <v>134</v>
       </c>
@@ -47691,7 +47691,7 @@
       <c r="L52" s="44"/>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="98"/>
+      <c r="A53" s="124"/>
       <c r="B53" s="41" t="s">
         <v>171</v>
       </c>
@@ -47743,7 +47743,7 @@
       <c r="Z54" s="55"/>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="97">
+      <c r="A55" s="123">
         <v>42596</v>
       </c>
       <c r="B55" s="54" t="s">
@@ -47764,7 +47764,7 @@
       <c r="L55" s="44"/>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="98"/>
+      <c r="A56" s="124"/>
       <c r="B56" s="41" t="s">
         <v>173</v>
       </c>
@@ -47782,7 +47782,7 @@
       <c r="L56" s="44"/>
     </row>
     <row r="57" spans="1:26">
-      <c r="A57" s="104">
+      <c r="A57" s="132">
         <v>42597</v>
       </c>
       <c r="B57" s="54" t="s">
@@ -47816,7 +47816,7 @@
       <c r="Z57" s="84"/>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="98"/>
+      <c r="A58" s="124"/>
       <c r="B58" s="56" t="s">
         <v>134</v>
       </c>
@@ -47834,7 +47834,7 @@
       <c r="L58" s="44"/>
     </row>
     <row r="59" spans="1:26">
-      <c r="A59" s="97">
+      <c r="A59" s="123">
         <v>42567</v>
       </c>
       <c r="B59" s="54" t="s">
@@ -47854,7 +47854,7 @@
       <c r="L59" s="44"/>
     </row>
     <row r="60" spans="1:26">
-      <c r="A60" s="98"/>
+      <c r="A60" s="124"/>
       <c r="B60" s="54" t="s">
         <v>152</v>
       </c>
@@ -47872,7 +47872,7 @@
       <c r="L60" s="44"/>
     </row>
     <row r="61" spans="1:26">
-      <c r="A61" s="98"/>
+      <c r="A61" s="124"/>
       <c r="B61" s="41" t="s">
         <v>175</v>
       </c>
@@ -47924,7 +47924,7 @@
       <c r="Z62" s="84"/>
     </row>
     <row r="63" spans="1:26">
-      <c r="A63" s="97">
+      <c r="A63" s="123">
         <v>42569</v>
       </c>
       <c r="B63" s="54" t="s">
@@ -47944,7 +47944,7 @@
       <c r="L63" s="44"/>
     </row>
     <row r="64" spans="1:26">
-      <c r="A64" s="98"/>
+      <c r="A64" s="124"/>
       <c r="B64" s="54" t="s">
         <v>170</v>
       </c>
@@ -47962,7 +47962,7 @@
       <c r="L64" s="44"/>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="100">
+      <c r="A65" s="127">
         <v>42570</v>
       </c>
       <c r="B65" s="54" t="s">
@@ -47996,7 +47996,7 @@
       <c r="Z65" s="55"/>
     </row>
     <row r="66" spans="1:26">
-      <c r="A66" s="98"/>
+      <c r="A66" s="124"/>
       <c r="B66" s="41" t="s">
         <v>176</v>
       </c>
@@ -48028,7 +48028,7 @@
       <c r="Z66" s="55"/>
     </row>
     <row r="67" spans="1:26">
-      <c r="A67" s="98"/>
+      <c r="A67" s="124"/>
       <c r="B67" s="56" t="s">
         <v>134</v>
       </c>
@@ -48110,7 +48110,7 @@
       <c r="Z69" s="55"/>
     </row>
     <row r="70" spans="1:26">
-      <c r="A70" s="101">
+      <c r="A70" s="130">
         <v>42573</v>
       </c>
       <c r="B70" s="54" t="s">
@@ -48130,7 +48130,7 @@
       <c r="L70" s="44"/>
     </row>
     <row r="71" spans="1:26">
-      <c r="A71" s="98"/>
+      <c r="A71" s="124"/>
       <c r="B71" s="54" t="s">
         <v>179</v>
       </c>
@@ -48148,7 +48148,7 @@
       <c r="L71" s="44"/>
     </row>
     <row r="72" spans="1:26">
-      <c r="A72" s="100">
+      <c r="A72" s="127">
         <v>42574</v>
       </c>
       <c r="B72" s="54" t="s">
@@ -48184,7 +48184,7 @@
       <c r="Z72" s="55"/>
     </row>
     <row r="73" spans="1:26">
-      <c r="A73" s="98"/>
+      <c r="A73" s="124"/>
       <c r="B73" s="54" t="s">
         <v>84</v>
       </c>
@@ -48216,7 +48216,7 @@
       <c r="Z73" s="55"/>
     </row>
     <row r="74" spans="1:26">
-      <c r="A74" s="98"/>
+      <c r="A74" s="124"/>
       <c r="B74" s="56" t="s">
         <v>134</v>
       </c>
@@ -48248,7 +48248,7 @@
       <c r="Z74" s="55"/>
     </row>
     <row r="75" spans="1:26">
-      <c r="A75" s="97">
+      <c r="A75" s="123">
         <v>42575</v>
       </c>
       <c r="B75" s="54" t="s">
@@ -48268,7 +48268,7 @@
       <c r="L75" s="44"/>
     </row>
     <row r="76" spans="1:26">
-      <c r="A76" s="98"/>
+      <c r="A76" s="124"/>
       <c r="B76" s="54" t="s">
         <v>84</v>
       </c>
@@ -48388,7 +48388,7 @@
       <c r="L80" s="44"/>
     </row>
     <row r="81" spans="1:26">
-      <c r="A81" s="100">
+      <c r="A81" s="127">
         <v>42580</v>
       </c>
       <c r="B81" s="70" t="s">
@@ -48422,7 +48422,7 @@
       <c r="Z81" s="55"/>
     </row>
     <row r="82" spans="1:26">
-      <c r="A82" s="98"/>
+      <c r="A82" s="124"/>
       <c r="B82" s="70" t="s">
         <v>84</v>
       </c>
@@ -48454,7 +48454,7 @@
       <c r="Z82" s="55"/>
     </row>
     <row r="83" spans="1:26">
-      <c r="A83" s="97">
+      <c r="A83" s="123">
         <v>42581</v>
       </c>
       <c r="B83" s="70" t="s">
@@ -48477,7 +48477,7 @@
       <c r="L83" s="44"/>
     </row>
     <row r="84" spans="1:26">
-      <c r="A84" s="98"/>
+      <c r="A84" s="124"/>
       <c r="B84" t="s">
         <v>185</v>
       </c>
@@ -48487,7 +48487,7 @@
       <c r="H84" s="43"/>
     </row>
     <row r="85" spans="1:26">
-      <c r="A85" s="98"/>
+      <c r="A85" s="124"/>
       <c r="B85" s="69" t="s">
         <v>186</v>
       </c>
@@ -48502,7 +48502,7 @@
       </c>
     </row>
     <row r="86" spans="1:26">
-      <c r="A86" s="98"/>
+      <c r="A86" s="124"/>
       <c r="B86" s="70" t="s">
         <v>187</v>
       </c>
@@ -48517,7 +48517,7 @@
       </c>
     </row>
     <row r="87" spans="1:26">
-      <c r="A87" s="100">
+      <c r="A87" s="127">
         <v>42582</v>
       </c>
       <c r="B87" s="54" t="s">
@@ -48555,7 +48555,7 @@
       <c r="Z87" s="55"/>
     </row>
     <row r="88" spans="1:26">
-      <c r="A88" s="98"/>
+      <c r="A88" s="124"/>
       <c r="B88" s="54" t="s">
         <v>189</v>
       </c>
@@ -48615,17 +48615,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A70:A71"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A42:A44"/>
@@ -48636,6 +48625,17 @@
     <mergeCell ref="A31:A37"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A81:A82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
